--- a/水泥.excel/1108/1108(102.1~105.4)3.xlsx
+++ b/水泥.excel/1108/1108(102.1~105.4)3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,663 +115,60 @@
     <t>不動產、廠房及設備</t>
   </si>
   <si>
-    <t>2,641,827</t>
-  </si>
-  <si>
-    <t>2,573,114</t>
-  </si>
-  <si>
-    <t>2,491,616</t>
-  </si>
-  <si>
-    <t>2,435,301</t>
-  </si>
-  <si>
-    <t>2,416,387</t>
-  </si>
-  <si>
-    <t>2,366,025</t>
-  </si>
-  <si>
-    <t>2,306,076</t>
-  </si>
-  <si>
-    <t>2,300,176</t>
-  </si>
-  <si>
-    <t>2,243,101</t>
-  </si>
-  <si>
-    <t>2,204,299</t>
-  </si>
-  <si>
-    <t>2,154,830</t>
-  </si>
-  <si>
-    <t>2,157,348</t>
-  </si>
-  <si>
-    <t>2,092,281</t>
-  </si>
-  <si>
-    <t>2,020,616</t>
-  </si>
-  <si>
-    <t>1,960,320</t>
-  </si>
-  <si>
-    <t>1,899,736</t>
-  </si>
-  <si>
     <t>以成本衡量之金融負債－非流動</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>以成本衡量之金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>87,111</t>
-  </si>
-  <si>
-    <t>74,969</t>
-  </si>
-  <si>
-    <t>72,399</t>
-  </si>
-  <si>
-    <t>62,399</t>
-  </si>
-  <si>
-    <t>56,266</t>
-  </si>
-  <si>
-    <t>53,081</t>
-  </si>
-  <si>
-    <t>47,081</t>
-  </si>
-  <si>
-    <t>42,766</t>
-  </si>
-  <si>
-    <t>37,666</t>
-  </si>
-  <si>
     <t>保留盈餘合計</t>
   </si>
   <si>
-    <t>199,978</t>
-  </si>
-  <si>
-    <t>241,247</t>
-  </si>
-  <si>
-    <t>296,549</t>
-  </si>
-  <si>
-    <t>309,849</t>
-  </si>
-  <si>
-    <t>382,864</t>
-  </si>
-  <si>
-    <t>352,292</t>
-  </si>
-  <si>
-    <t>433,670</t>
-  </si>
-  <si>
-    <t>508,990</t>
-  </si>
-  <si>
-    <t>665,288</t>
-  </si>
-  <si>
-    <t>581,695</t>
-  </si>
-  <si>
-    <t>673,475</t>
-  </si>
-  <si>
-    <t>728,106</t>
-  </si>
-  <si>
-    <t>831,498</t>
-  </si>
-  <si>
-    <t>578,923</t>
-  </si>
-  <si>
-    <t>657,936</t>
-  </si>
-  <si>
-    <t>696,907</t>
-  </si>
-  <si>
     <t>備供出售金融資產未實現損益</t>
   </si>
   <si>
-    <t>59,999</t>
-  </si>
-  <si>
-    <t>42,181</t>
-  </si>
-  <si>
-    <t>41,970</t>
-  </si>
-  <si>
-    <t>40,355</t>
-  </si>
-  <si>
-    <t>46,573</t>
-  </si>
-  <si>
-    <t>37,631</t>
-  </si>
-  <si>
-    <t>27,088</t>
-  </si>
-  <si>
     <t>備供出售金融資產－流動淨額</t>
   </si>
   <si>
-    <t>120,064</t>
-  </si>
-  <si>
-    <t>122,249</t>
-  </si>
-  <si>
-    <t>118,980</t>
-  </si>
-  <si>
-    <t>106,838</t>
-  </si>
-  <si>
-    <t>107,351</t>
-  </si>
-  <si>
-    <t>95,990</t>
-  </si>
-  <si>
-    <t>81,568</t>
-  </si>
-  <si>
-    <t>141,895</t>
-  </si>
-  <si>
-    <t>127,189</t>
-  </si>
-  <si>
-    <t>153,030</t>
-  </si>
-  <si>
-    <t>153,574</t>
-  </si>
-  <si>
-    <t>177,052</t>
-  </si>
-  <si>
-    <t>197,943</t>
-  </si>
-  <si>
-    <t>199,699</t>
-  </si>
-  <si>
-    <t>175,531</t>
-  </si>
-  <si>
-    <t>169,905</t>
-  </si>
-  <si>
     <t>備供出售金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>16,480</t>
-  </si>
-  <si>
     <t>其他應付款</t>
   </si>
   <si>
-    <t>168,970</t>
-  </si>
-  <si>
-    <t>175,726</t>
-  </si>
-  <si>
-    <t>183,411</t>
-  </si>
-  <si>
-    <t>206,823</t>
-  </si>
-  <si>
-    <t>199,516</t>
-  </si>
-  <si>
-    <t>399,506</t>
-  </si>
-  <si>
-    <t>203,215</t>
-  </si>
-  <si>
-    <t>197,092</t>
-  </si>
-  <si>
-    <t>198,041</t>
-  </si>
-  <si>
-    <t>495,188</t>
-  </si>
-  <si>
-    <t>192,190</t>
-  </si>
-  <si>
-    <t>250,828</t>
-  </si>
-  <si>
-    <t>193,429</t>
-  </si>
-  <si>
-    <t>544,810</t>
-  </si>
-  <si>
-    <t>199,096</t>
-  </si>
-  <si>
-    <t>192,032</t>
-  </si>
-  <si>
     <t>其他應付款項－關係人</t>
   </si>
   <si>
     <t>其他應收款淨額</t>
   </si>
   <si>
-    <t>5,719</t>
-  </si>
-  <si>
-    <t>3,804</t>
-  </si>
-  <si>
-    <t>6,188</t>
-  </si>
-  <si>
-    <t>5,800</t>
-  </si>
-  <si>
-    <t>3,775</t>
-  </si>
-  <si>
-    <t>3,043</t>
-  </si>
-  <si>
-    <t>8,266</t>
-  </si>
-  <si>
-    <t>3,817</t>
-  </si>
-  <si>
-    <t>3,837</t>
-  </si>
-  <si>
-    <t>1,403</t>
-  </si>
-  <si>
-    <t>2,068</t>
-  </si>
-  <si>
-    <t>5,087</t>
-  </si>
-  <si>
-    <t>36,928</t>
-  </si>
-  <si>
-    <t>19,656</t>
-  </si>
-  <si>
-    <t>49,674</t>
-  </si>
-  <si>
-    <t>1,927</t>
-  </si>
-  <si>
     <t>其他權益合計</t>
   </si>
   <si>
-    <t>55,075</t>
-  </si>
-  <si>
-    <t>36,224</t>
-  </si>
-  <si>
-    <t>36,223</t>
-  </si>
-  <si>
-    <t>32,262</t>
-  </si>
-  <si>
-    <t>42,128</t>
-  </si>
-  <si>
-    <t>33,488</t>
-  </si>
-  <si>
-    <t>21,092</t>
-  </si>
-  <si>
-    <t>28,252</t>
-  </si>
-  <si>
-    <t>29,700</t>
-  </si>
-  <si>
-    <t>17,142</t>
-  </si>
-  <si>
-    <t>20,316</t>
-  </si>
-  <si>
-    <t>36,356</t>
-  </si>
-  <si>
-    <t>31,701</t>
-  </si>
-  <si>
-    <t>38,754</t>
-  </si>
-  <si>
-    <t>36,514</t>
-  </si>
-  <si>
-    <t>27,400</t>
-  </si>
-  <si>
     <t>其他權益－其他</t>
   </si>
   <si>
     <t>其他流動負債</t>
   </si>
   <si>
-    <t>642,500</t>
-  </si>
-  <si>
-    <t>606,090</t>
-  </si>
-  <si>
-    <t>650,972</t>
-  </si>
-  <si>
-    <t>659,337</t>
-  </si>
-  <si>
-    <t>618,698</t>
-  </si>
-  <si>
-    <t>655,044</t>
-  </si>
-  <si>
-    <t>754,619</t>
-  </si>
-  <si>
-    <t>1,074,944</t>
-  </si>
-  <si>
-    <t>1,072,144</t>
-  </si>
-  <si>
-    <t>1,016,493</t>
-  </si>
-  <si>
-    <t>648,643</t>
-  </si>
-  <si>
-    <t>617,230</t>
-  </si>
-  <si>
-    <t>654,334</t>
-  </si>
-  <si>
-    <t>685,419</t>
-  </si>
-  <si>
-    <t>530,264</t>
-  </si>
-  <si>
-    <t>483,558</t>
-  </si>
-  <si>
     <t>其他流動資產</t>
   </si>
   <si>
-    <t>253,953</t>
-  </si>
-  <si>
-    <t>307,106</t>
-  </si>
-  <si>
-    <t>316,568</t>
-  </si>
-  <si>
-    <t>282,150</t>
-  </si>
-  <si>
-    <t>284,592</t>
-  </si>
-  <si>
-    <t>286,651</t>
-  </si>
-  <si>
-    <t>283,337</t>
-  </si>
-  <si>
-    <t>234,595</t>
-  </si>
-  <si>
-    <t>234,261</t>
-  </si>
-  <si>
-    <t>284,938</t>
-  </si>
-  <si>
-    <t>194,880</t>
-  </si>
-  <si>
-    <t>189,421</t>
-  </si>
-  <si>
-    <t>189,358</t>
-  </si>
-  <si>
-    <t>196,221</t>
-  </si>
-  <si>
-    <t>366,356</t>
-  </si>
-  <si>
-    <t>387,111</t>
-  </si>
-  <si>
     <t>其他非流動負債</t>
   </si>
   <si>
-    <t>472,255</t>
-  </si>
-  <si>
-    <t>465,700</t>
-  </si>
-  <si>
-    <t>463,114</t>
-  </si>
-  <si>
-    <t>458,741</t>
-  </si>
-  <si>
-    <t>458,445</t>
-  </si>
-  <si>
-    <t>453,432</t>
-  </si>
-  <si>
-    <t>432,971</t>
-  </si>
-  <si>
-    <t>422,607</t>
-  </si>
-  <si>
-    <t>424,274</t>
-  </si>
-  <si>
-    <t>424,327</t>
-  </si>
-  <si>
-    <t>417,581</t>
-  </si>
-  <si>
-    <t>421,975</t>
-  </si>
-  <si>
-    <t>139,435</t>
-  </si>
-  <si>
-    <t>146,071</t>
-  </si>
-  <si>
-    <t>145,966</t>
-  </si>
-  <si>
-    <t>150,969</t>
-  </si>
-  <si>
     <t>其他非流動資產</t>
   </si>
   <si>
-    <t>309,527</t>
-  </si>
-  <si>
-    <t>298,009</t>
-  </si>
-  <si>
-    <t>293,941</t>
-  </si>
-  <si>
-    <t>297,199</t>
-  </si>
-  <si>
-    <t>301,072</t>
-  </si>
-  <si>
-    <t>356,129</t>
-  </si>
-  <si>
-    <t>348,071</t>
-  </si>
-  <si>
-    <t>314,755</t>
-  </si>
-  <si>
-    <t>318,287</t>
-  </si>
-  <si>
-    <t>284,580</t>
-  </si>
-  <si>
-    <t>352,405</t>
-  </si>
-  <si>
-    <t>291,602</t>
-  </si>
-  <si>
-    <t>278,656</t>
-  </si>
-  <si>
-    <t>307,456</t>
-  </si>
-  <si>
-    <t>309,962</t>
-  </si>
-  <si>
-    <t>315,683</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>-4,924</t>
-  </si>
-  <si>
-    <t>-5,957</t>
-  </si>
-  <si>
-    <t>-5,747</t>
-  </si>
-  <si>
-    <t>-8,093</t>
-  </si>
-  <si>
-    <t>-4,445</t>
-  </si>
-  <si>
-    <t>-4,143</t>
-  </si>
-  <si>
-    <t>-5,996</t>
-  </si>
-  <si>
     <t>天然資源淨額</t>
   </si>
   <si>
     <t>存貨</t>
   </si>
   <si>
-    <t>3,590,014</t>
-  </si>
-  <si>
-    <t>3,706,341</t>
-  </si>
-  <si>
-    <t>3,732,588</t>
-  </si>
-  <si>
-    <t>3,627,749</t>
-  </si>
-  <si>
-    <t>3,566,335</t>
-  </si>
-  <si>
-    <t>3,623,617</t>
-  </si>
-  <si>
-    <t>3,647,309</t>
-  </si>
-  <si>
-    <t>3,570,708</t>
-  </si>
-  <si>
-    <t>3,544,763</t>
-  </si>
-  <si>
-    <t>3,558,046</t>
-  </si>
-  <si>
-    <t>3,591,614</t>
-  </si>
-  <si>
-    <t>3,508,275</t>
-  </si>
-  <si>
-    <t>3,598,001</t>
-  </si>
-  <si>
-    <t>3,586,785</t>
-  </si>
-  <si>
-    <t>3,574,757</t>
-  </si>
-  <si>
-    <t>3,624,700</t>
-  </si>
-  <si>
     <t>工程進度請款金額</t>
   </si>
   <si>
@@ -781,9 +178,6 @@
     <t>待出售非流動資產（淨額）</t>
   </si>
   <si>
-    <t>6,124</t>
-  </si>
-  <si>
     <t>待註銷股本股數（單位：股）</t>
   </si>
   <si>
@@ -793,423 +187,30 @@
     <t>應付帳款</t>
   </si>
   <si>
-    <t>185,925</t>
-  </si>
-  <si>
-    <t>197,611</t>
-  </si>
-  <si>
-    <t>219,667</t>
-  </si>
-  <si>
-    <t>217,704</t>
-  </si>
-  <si>
-    <t>234,933</t>
-  </si>
-  <si>
-    <t>218,192</t>
-  </si>
-  <si>
-    <t>249,416</t>
-  </si>
-  <si>
-    <t>224,162</t>
-  </si>
-  <si>
-    <t>171,859</t>
-  </si>
-  <si>
-    <t>149,854</t>
-  </si>
-  <si>
-    <t>169,149</t>
-  </si>
-  <si>
-    <t>205,547</t>
-  </si>
-  <si>
-    <t>310,498</t>
-  </si>
-  <si>
-    <t>211,464</t>
-  </si>
-  <si>
-    <t>94,349</t>
-  </si>
-  <si>
-    <t>172,446</t>
-  </si>
-  <si>
     <t>應付帳款－關係人</t>
   </si>
   <si>
-    <t>5,895</t>
-  </si>
-  <si>
-    <t>2,836</t>
-  </si>
-  <si>
-    <t>2,118</t>
-  </si>
-  <si>
-    <t>1,956</t>
-  </si>
-  <si>
-    <t>5,392</t>
-  </si>
-  <si>
-    <t>9,574</t>
-  </si>
-  <si>
-    <t>4,857</t>
-  </si>
-  <si>
-    <t>6,742</t>
-  </si>
-  <si>
-    <t>5,188</t>
-  </si>
-  <si>
-    <t>3,042</t>
-  </si>
-  <si>
-    <t>6,518</t>
-  </si>
-  <si>
-    <t>10,012</t>
-  </si>
-  <si>
-    <t>11,141</t>
-  </si>
-  <si>
-    <t>1,213</t>
-  </si>
-  <si>
-    <t>77,488</t>
-  </si>
-  <si>
-    <t>90,433</t>
-  </si>
-  <si>
     <t>應付短期票券</t>
   </si>
   <si>
-    <t>99,682</t>
-  </si>
-  <si>
-    <t>128,441</t>
-  </si>
-  <si>
-    <t>123,602</t>
-  </si>
-  <si>
-    <t>118,529</t>
-  </si>
-  <si>
-    <t>118,650</t>
-  </si>
-  <si>
-    <t>118,550</t>
-  </si>
-  <si>
-    <t>118,683</t>
-  </si>
-  <si>
-    <t>108,683</t>
-  </si>
-  <si>
-    <t>108,776</t>
-  </si>
-  <si>
-    <t>104,911</t>
-  </si>
-  <si>
-    <t>49,950</t>
-  </si>
-  <si>
-    <t>49,875</t>
-  </si>
-  <si>
-    <t>149,836</t>
-  </si>
-  <si>
-    <t>229,809</t>
-  </si>
-  <si>
-    <t>229,443</t>
-  </si>
-  <si>
     <t>應付票據</t>
   </si>
   <si>
-    <t>233,052</t>
-  </si>
-  <si>
-    <t>260,867</t>
-  </si>
-  <si>
-    <t>257,462</t>
-  </si>
-  <si>
-    <t>327,651</t>
-  </si>
-  <si>
-    <t>232,479</t>
-  </si>
-  <si>
-    <t>318,519</t>
-  </si>
-  <si>
-    <t>264,838</t>
-  </si>
-  <si>
-    <t>313,962</t>
-  </si>
-  <si>
-    <t>235,739</t>
-  </si>
-  <si>
-    <t>197,836</t>
-  </si>
-  <si>
-    <t>236,553</t>
-  </si>
-  <si>
-    <t>190,379</t>
-  </si>
-  <si>
-    <t>155,564</t>
-  </si>
-  <si>
-    <t>233,148</t>
-  </si>
-  <si>
-    <t>225,516</t>
-  </si>
-  <si>
-    <t>155,842</t>
-  </si>
-  <si>
     <t>應付票據－關係人</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1,629</t>
-  </si>
-  <si>
-    <t>1,784</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>1,145</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>4,447</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>1,365</t>
-  </si>
-  <si>
-    <t>5,463</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>1,050</t>
-  </si>
-  <si>
-    <t>44,756</t>
-  </si>
-  <si>
-    <t>91,186</t>
-  </si>
-  <si>
     <t>應收帳款淨額</t>
   </si>
   <si>
-    <t>515,258</t>
-  </si>
-  <si>
-    <t>530,217</t>
-  </si>
-  <si>
-    <t>519,764</t>
-  </si>
-  <si>
-    <t>544,148</t>
-  </si>
-  <si>
-    <t>501,064</t>
-  </si>
-  <si>
-    <t>551,236</t>
-  </si>
-  <si>
-    <t>551,457</t>
-  </si>
-  <si>
-    <t>557,441</t>
-  </si>
-  <si>
-    <t>552,760</t>
-  </si>
-  <si>
-    <t>528,692</t>
-  </si>
-  <si>
-    <t>423,303</t>
-  </si>
-  <si>
-    <t>460,296</t>
-  </si>
-  <si>
-    <t>373,753</t>
-  </si>
-  <si>
-    <t>321,603</t>
-  </si>
-  <si>
-    <t>361,232</t>
-  </si>
-  <si>
-    <t>303,758</t>
-  </si>
-  <si>
     <t>應收帳款－關係人淨額</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3,802</t>
-  </si>
-  <si>
-    <t>4,186</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>23,360</t>
-  </si>
-  <si>
     <t>應收票據淨額</t>
   </si>
   <si>
-    <t>530,560</t>
-  </si>
-  <si>
-    <t>526,389</t>
-  </si>
-  <si>
-    <t>507,013</t>
-  </si>
-  <si>
-    <t>587,846</t>
-  </si>
-  <si>
-    <t>524,463</t>
-  </si>
-  <si>
-    <t>519,597</t>
-  </si>
-  <si>
-    <t>500,774</t>
-  </si>
-  <si>
-    <t>584,884</t>
-  </si>
-  <si>
-    <t>516,489</t>
-  </si>
-  <si>
-    <t>520,631</t>
-  </si>
-  <si>
-    <t>456,366</t>
-  </si>
-  <si>
-    <t>442,341</t>
-  </si>
-  <si>
-    <t>359,495</t>
-  </si>
-  <si>
-    <t>512,860</t>
-  </si>
-  <si>
-    <t>415,615</t>
-  </si>
-  <si>
-    <t>440,532</t>
-  </si>
-  <si>
     <t>應收票據－關係人淨額</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3,343</t>
-  </si>
-  <si>
-    <t>1,903</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>12,050</t>
-  </si>
-  <si>
     <t>投資性不動產淨額</t>
   </si>
   <si>
@@ -1228,336 +229,33 @@
     <t>普通股股本</t>
   </si>
   <si>
-    <t>4,047,380</t>
-  </si>
-  <si>
     <t>未分配盈餘（或待彌補虧損）</t>
   </si>
   <si>
-    <t>157,389</t>
-  </si>
-  <si>
-    <t>195,250</t>
-  </si>
-  <si>
-    <t>250,552</t>
-  </si>
-  <si>
-    <t>263,852</t>
-  </si>
-  <si>
-    <t>336,867</t>
-  </si>
-  <si>
-    <t>288,351</t>
-  </si>
-  <si>
-    <t>369,729</t>
-  </si>
-  <si>
-    <t>445,049</t>
-  </si>
-  <si>
-    <t>601,347</t>
-  </si>
-  <si>
-    <t>479,800</t>
-  </si>
-  <si>
-    <t>571,580</t>
-  </si>
-  <si>
-    <t>626,211</t>
-  </si>
-  <si>
-    <t>729,603</t>
-  </si>
-  <si>
-    <t>430,012</t>
-  </si>
-  <si>
-    <t>509,025</t>
-  </si>
-  <si>
-    <t>547,996</t>
-  </si>
-  <si>
     <t>本期所得稅負債</t>
   </si>
   <si>
-    <t>52,785</t>
-  </si>
-  <si>
-    <t>96,069</t>
-  </si>
-  <si>
-    <t>94,630</t>
-  </si>
-  <si>
-    <t>136,076</t>
-  </si>
-  <si>
-    <t>137,399</t>
-  </si>
-  <si>
-    <t>12,477</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>4,128</t>
-  </si>
-  <si>
     <t>本期所得稅資產</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>34,081</t>
-  </si>
-  <si>
-    <t>15,663</t>
-  </si>
-  <si>
     <t>權益總計</t>
   </si>
   <si>
-    <t>4,283,174</t>
-  </si>
-  <si>
-    <t>4,346,426</t>
-  </si>
-  <si>
-    <t>4,399,720</t>
-  </si>
-  <si>
-    <t>4,403,404</t>
-  </si>
-  <si>
-    <t>4,484,045</t>
-  </si>
-  <si>
-    <t>4,443,999</t>
-  </si>
-  <si>
-    <t>4,508,251</t>
-  </si>
-  <si>
-    <t>4,615,114</t>
-  </si>
-  <si>
-    <t>4,771,744</t>
-  </si>
-  <si>
-    <t>4,669,070</t>
-  </si>
-  <si>
-    <t>4,774,614</t>
-  </si>
-  <si>
-    <t>4,845,664</t>
-  </si>
-  <si>
-    <t>4,945,380</t>
-  </si>
-  <si>
-    <t>4,696,296</t>
-  </si>
-  <si>
-    <t>4,771,928</t>
-  </si>
-  <si>
-    <t>4,801,836</t>
-  </si>
-  <si>
     <t>歸屬於母公司業主之權益合計</t>
   </si>
   <si>
-    <t>4,302,438</t>
-  </si>
-  <si>
-    <t>4,324,858</t>
-  </si>
-  <si>
-    <t>4,380,159</t>
-  </si>
-  <si>
-    <t>4,389,498</t>
-  </si>
-  <si>
-    <t>4,472,379</t>
-  </si>
-  <si>
-    <t>4,433,167</t>
-  </si>
-  <si>
-    <t>4,502,149</t>
-  </si>
-  <si>
-    <t>4,584,622</t>
-  </si>
-  <si>
-    <t>4,742,368</t>
-  </si>
-  <si>
-    <t>4,646,217</t>
-  </si>
-  <si>
-    <t>4,741,179</t>
-  </si>
-  <si>
-    <t>4,811,850</t>
-  </si>
-  <si>
-    <t>4,910,587</t>
-  </si>
-  <si>
-    <t>4,665,065</t>
-  </si>
-  <si>
-    <t>4,741,838</t>
-  </si>
-  <si>
-    <t>4,771,695</t>
-  </si>
-  <si>
     <t>母公司暨子公司所持有之母公司庫藏股股數（單位：股）</t>
   </si>
   <si>
     <t>法定盈餘公積</t>
   </si>
   <si>
-    <t>28,454</t>
-  </si>
-  <si>
-    <t>31,862</t>
-  </si>
-  <si>
-    <t>49,806</t>
-  </si>
-  <si>
-    <t>87,760</t>
-  </si>
-  <si>
-    <t>134,776</t>
-  </si>
-  <si>
     <t>流動負債合計</t>
   </si>
   <si>
-    <t>2,245,153</t>
-  </si>
-  <si>
-    <t>2,282,837</t>
-  </si>
-  <si>
-    <t>2,290,430</t>
-  </si>
-  <si>
-    <t>2,236,177</t>
-  </si>
-  <si>
-    <t>2,134,938</t>
-  </si>
-  <si>
-    <t>2,256,891</t>
-  </si>
-  <si>
-    <t>2,103,436</t>
-  </si>
-  <si>
-    <t>2,333,817</t>
-  </si>
-  <si>
-    <t>2,135,953</t>
-  </si>
-  <si>
-    <t>2,398,310</t>
-  </si>
-  <si>
-    <t>2,008,351</t>
-  </si>
-  <si>
-    <t>1,824,743</t>
-  </si>
-  <si>
-    <t>2,034,747</t>
-  </si>
-  <si>
-    <t>2,342,023</t>
-  </si>
-  <si>
-    <t>2,611,678</t>
-  </si>
-  <si>
-    <t>2,604,897</t>
-  </si>
-  <si>
     <t>流動資產合計</t>
   </si>
   <si>
-    <t>5,314,198</t>
-  </si>
-  <si>
-    <t>5,583,173</t>
-  </si>
-  <si>
-    <t>5,662,222</t>
-  </si>
-  <si>
-    <t>5,593,001</t>
-  </si>
-  <si>
-    <t>5,487,153</t>
-  </si>
-  <si>
-    <t>5,572,577</t>
-  </si>
-  <si>
-    <t>5,556,970</t>
-  </si>
-  <si>
-    <t>5,561,570</t>
-  </si>
-  <si>
-    <t>5,442,970</t>
-  </si>
-  <si>
-    <t>5,639,539</t>
-  </si>
-  <si>
-    <t>5,330,369</t>
-  </si>
-  <si>
-    <t>5,212,763</t>
-  </si>
-  <si>
-    <t>5,199,696</t>
-  </si>
-  <si>
-    <t>5,257,193</t>
-  </si>
-  <si>
-    <t>5,367,970</t>
-  </si>
-  <si>
-    <t>5,360,762</t>
-  </si>
-  <si>
     <t>無形資產</t>
   </si>
   <si>
@@ -1567,204 +265,30 @@
     <t>特別盈餘公積</t>
   </si>
   <si>
-    <t>14,135</t>
-  </si>
-  <si>
     <t>現金及約當現金</t>
   </si>
   <si>
-    <t>130,408</t>
-  </si>
-  <si>
-    <t>146,104</t>
-  </si>
-  <si>
-    <t>206,989</t>
-  </si>
-  <si>
-    <t>216,573</t>
-  </si>
-  <si>
-    <t>269,002</t>
-  </si>
-  <si>
-    <t>258,546</t>
-  </si>
-  <si>
-    <t>217,554</t>
-  </si>
-  <si>
-    <t>261,107</t>
-  </si>
-  <si>
-    <t>241,190</t>
-  </si>
-  <si>
-    <t>370,011</t>
-  </si>
-  <si>
-    <t>286,582</t>
-  </si>
-  <si>
-    <t>220,129</t>
-  </si>
-  <si>
-    <t>178,494</t>
-  </si>
-  <si>
-    <t>168,359</t>
-  </si>
-  <si>
-    <t>139,091</t>
-  </si>
-  <si>
-    <t>213,090</t>
-  </si>
-  <si>
     <t>生物資產－非流動</t>
   </si>
   <si>
     <t>當期所得稅負債</t>
   </si>
   <si>
-    <t>18,064</t>
-  </si>
-  <si>
-    <t>3,113</t>
-  </si>
-  <si>
-    <t>6,489</t>
-  </si>
-  <si>
-    <t>7,591</t>
-  </si>
-  <si>
-    <t>9,129</t>
-  </si>
-  <si>
-    <t>6,956</t>
-  </si>
-  <si>
-    <t>12,128</t>
-  </si>
-  <si>
-    <t>13,068</t>
-  </si>
-  <si>
     <t>當期所得稅資產</t>
   </si>
   <si>
-    <t>4,134</t>
-  </si>
-  <si>
-    <t>4,114</t>
-  </si>
-  <si>
-    <t>3,146</t>
-  </si>
-  <si>
-    <t>1,078</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>891,052</t>
-  </si>
-  <si>
-    <t>906,524</t>
-  </si>
-  <si>
-    <t>844,925</t>
-  </si>
-  <si>
-    <t>696,430</t>
-  </si>
-  <si>
-    <t>714,996</t>
-  </si>
-  <si>
-    <t>530,287</t>
-  </si>
-  <si>
-    <t>491,233</t>
-  </si>
-  <si>
-    <t>395,113</t>
-  </si>
-  <si>
-    <t>290,056</t>
-  </si>
-  <si>
-    <t>329,454</t>
-  </si>
-  <si>
-    <t>659,690</t>
-  </si>
-  <si>
-    <t>364,721</t>
-  </si>
-  <si>
-    <t>522,446</t>
-  </si>
-  <si>
-    <t>502,606</t>
-  </si>
-  <si>
-    <t>1,210,108</t>
-  </si>
-  <si>
-    <t>1,185,829</t>
-  </si>
-  <si>
     <t>股本合計</t>
   </si>
   <si>
     <t>與待出售非流動資產直接相關之負債</t>
   </si>
   <si>
-    <t>978</t>
-  </si>
-  <si>
     <t>負債及權益總計</t>
   </si>
   <si>
-    <t>8,208,186</t>
-  </si>
-  <si>
-    <t>8,334,271</t>
-  </si>
-  <si>
-    <t>8,025,294</t>
-  </si>
-  <si>
-    <t>7,855,502</t>
-  </si>
-  <si>
-    <t>7,741,112</t>
-  </si>
-  <si>
-    <t>7,731,041</t>
-  </si>
-  <si>
-    <t>7,801,041</t>
-  </si>
-  <si>
-    <t>7,752,644</t>
-  </si>
-  <si>
     <t>負債準備－流動</t>
   </si>
   <si>
@@ -1774,69 +298,12 @@
     <t>負債總計</t>
   </si>
   <si>
-    <t>4,291,939</t>
-  </si>
-  <si>
-    <t>4,391,129</t>
-  </si>
-  <si>
-    <t>4,317,189</t>
-  </si>
-  <si>
-    <t>4,179,603</t>
-  </si>
-  <si>
-    <t>3,960,947</t>
-  </si>
-  <si>
-    <t>4,064,108</t>
-  </si>
-  <si>
-    <t>3,905,399</t>
-  </si>
-  <si>
-    <t>3,748,165</t>
-  </si>
-  <si>
-    <t>3,436,442</t>
-  </si>
-  <si>
-    <t>3,665,201</t>
-  </si>
-  <si>
-    <t>3,250,680</t>
-  </si>
-  <si>
-    <t>3,009,838</t>
-  </si>
-  <si>
-    <t>2,795,732</t>
-  </si>
-  <si>
-    <t>3,034,745</t>
-  </si>
-  <si>
-    <t>3,029,113</t>
-  </si>
-  <si>
-    <t>2,950,808</t>
-  </si>
-  <si>
     <t>資本公積-採用權益法認列關聯企業及合資取得或處分子公司股權價格與帳面價值差額</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>資本公積合計</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>資本公積－採用權益法認列關聯企業及合資股權淨值之變動數</t>
   </si>
   <si>
@@ -1846,30 +313,6 @@
     <t>資產總計</t>
   </si>
   <si>
-    <t>8,575,113</t>
-  </si>
-  <si>
-    <t>8,737,555</t>
-  </si>
-  <si>
-    <t>8,716,909</t>
-  </si>
-  <si>
-    <t>8,583,007</t>
-  </si>
-  <si>
-    <t>8,444,992</t>
-  </si>
-  <si>
-    <t>8,508,107</t>
-  </si>
-  <si>
-    <t>8,413,650</t>
-  </si>
-  <si>
-    <t>8,363,279</t>
-  </si>
-  <si>
     <t>透過其他綜合損益按公允價值衡量之金融資產－非流動</t>
   </si>
   <si>
@@ -1888,105 +331,9 @@
     <t>遞延所得稅負債</t>
   </si>
   <si>
-    <t>94,083</t>
-  </si>
-  <si>
-    <t>90,042</t>
-  </si>
-  <si>
-    <t>89,360</t>
-  </si>
-  <si>
-    <t>88,147</t>
-  </si>
-  <si>
-    <t>87,298</t>
-  </si>
-  <si>
-    <t>81,085</t>
-  </si>
-  <si>
-    <t>81,992</t>
-  </si>
-  <si>
-    <t>78,941</t>
-  </si>
-  <si>
-    <t>91,115</t>
-  </si>
-  <si>
-    <t>89,164</t>
-  </si>
-  <si>
-    <t>89,048</t>
-  </si>
-  <si>
-    <t>68,270</t>
-  </si>
-  <si>
-    <t>65,012</t>
-  </si>
-  <si>
-    <t>62,213</t>
-  </si>
-  <si>
-    <t>60,831</t>
-  </si>
-  <si>
-    <t>59,604</t>
-  </si>
-  <si>
     <t>遞延所得稅資產</t>
   </si>
   <si>
-    <t>222,450</t>
-  </si>
-  <si>
-    <t>208,290</t>
-  </si>
-  <si>
-    <t>196,731</t>
-  </si>
-  <si>
-    <t>195,107</t>
-  </si>
-  <si>
-    <t>177,981</t>
-  </si>
-  <si>
-    <t>150,977</t>
-  </si>
-  <si>
-    <t>140,134</t>
-  </si>
-  <si>
-    <t>130,512</t>
-  </si>
-  <si>
-    <t>150,747</t>
-  </si>
-  <si>
-    <t>152,772</t>
-  </si>
-  <si>
-    <t>140,609</t>
-  </si>
-  <si>
-    <t>151,023</t>
-  </si>
-  <si>
-    <t>127,713</t>
-  </si>
-  <si>
-    <t>108,110</t>
-  </si>
-  <si>
-    <t>108,643</t>
-  </si>
-  <si>
-    <t>122,317</t>
-  </si>
-  <si>
     <t>避險之衍生金融負債－非流動</t>
   </si>
   <si>
@@ -1996,256 +343,16 @@
     <t>長期借款</t>
   </si>
   <si>
-    <t>1,480,448</t>
-  </si>
-  <si>
-    <t>1,552,550</t>
-  </si>
-  <si>
-    <t>1,474,285</t>
-  </si>
-  <si>
-    <t>1,396,538</t>
-  </si>
-  <si>
-    <t>1,280,266</t>
-  </si>
-  <si>
-    <t>1,272,700</t>
-  </si>
-  <si>
-    <t>1,287,000</t>
-  </si>
-  <si>
-    <t>912,800</t>
-  </si>
-  <si>
-    <t>785,100</t>
-  </si>
-  <si>
-    <t>753,400</t>
-  </si>
-  <si>
-    <t>735,700</t>
-  </si>
-  <si>
-    <t>694,850</t>
-  </si>
-  <si>
-    <t>556,538</t>
-  </si>
-  <si>
-    <t>484,438</t>
-  </si>
-  <si>
-    <t>210,638</t>
-  </si>
-  <si>
-    <t>135,338</t>
-  </si>
-  <si>
     <t>非控制權益</t>
   </si>
   <si>
-    <t>-19,264</t>
-  </si>
-  <si>
-    <t>21,568</t>
-  </si>
-  <si>
-    <t>19,561</t>
-  </si>
-  <si>
-    <t>13,906</t>
-  </si>
-  <si>
-    <t>11,666</t>
-  </si>
-  <si>
-    <t>10,832</t>
-  </si>
-  <si>
-    <t>6,102</t>
-  </si>
-  <si>
-    <t>30,492</t>
-  </si>
-  <si>
-    <t>29,376</t>
-  </si>
-  <si>
-    <t>22,853</t>
-  </si>
-  <si>
-    <t>33,435</t>
-  </si>
-  <si>
-    <t>33,814</t>
-  </si>
-  <si>
-    <t>34,793</t>
-  </si>
-  <si>
-    <t>31,231</t>
-  </si>
-  <si>
-    <t>30,090</t>
-  </si>
-  <si>
-    <t>30,141</t>
-  </si>
-  <si>
     <t>非流動負債合計</t>
   </si>
   <si>
-    <t>2,046,786</t>
-  </si>
-  <si>
-    <t>2,108,292</t>
-  </si>
-  <si>
-    <t>2,026,759</t>
-  </si>
-  <si>
-    <t>1,943,426</t>
-  </si>
-  <si>
-    <t>1,826,009</t>
-  </si>
-  <si>
-    <t>1,807,217</t>
-  </si>
-  <si>
-    <t>1,801,963</t>
-  </si>
-  <si>
-    <t>1,414,348</t>
-  </si>
-  <si>
-    <t>1,300,489</t>
-  </si>
-  <si>
-    <t>1,266,891</t>
-  </si>
-  <si>
-    <t>1,242,329</t>
-  </si>
-  <si>
-    <t>1,185,095</t>
-  </si>
-  <si>
-    <t>760,985</t>
-  </si>
-  <si>
-    <t>692,722</t>
-  </si>
-  <si>
-    <t>417,435</t>
-  </si>
-  <si>
-    <t>345,911</t>
-  </si>
-  <si>
     <t>非流動資產合計</t>
   </si>
   <si>
-    <t>3,260,915</t>
-  </si>
-  <si>
-    <t>3,154,382</t>
-  </si>
-  <si>
-    <t>3,054,687</t>
-  </si>
-  <si>
-    <t>2,990,006</t>
-  </si>
-  <si>
-    <t>2,957,839</t>
-  </si>
-  <si>
-    <t>2,935,530</t>
-  </si>
-  <si>
-    <t>2,856,680</t>
-  </si>
-  <si>
-    <t>2,801,709</t>
-  </si>
-  <si>
-    <t>2,765,216</t>
-  </si>
-  <si>
-    <t>2,694,732</t>
-  </si>
-  <si>
-    <t>2,694,925</t>
-  </si>
-  <si>
-    <t>2,642,739</t>
-  </si>
-  <si>
-    <t>2,541,416</t>
-  </si>
-  <si>
-    <t>2,473,848</t>
-  </si>
-  <si>
-    <t>2,433,071</t>
-  </si>
-  <si>
-    <t>2,391,882</t>
-  </si>
-  <si>
     <t>預付款項</t>
-  </si>
-  <si>
-    <t>164,069</t>
-  </si>
-  <si>
-    <t>236,696</t>
-  </si>
-  <si>
-    <t>250,834</t>
-  </si>
-  <si>
-    <t>216,917</t>
-  </si>
-  <si>
-    <t>225,978</t>
-  </si>
-  <si>
-    <t>233,452</t>
-  </si>
-  <si>
-    <t>262,728</t>
-  </si>
-  <si>
-    <t>205,124</t>
-  </si>
-  <si>
-    <t>221,575</t>
-  </si>
-  <si>
-    <t>222,242</t>
-  </si>
-  <si>
-    <t>215,805</t>
-  </si>
-  <si>
-    <t>209,909</t>
-  </si>
-  <si>
-    <t>265,386</t>
-  </si>
-  <si>
-    <t>251,981</t>
-  </si>
-  <si>
-    <t>250,823</t>
-  </si>
-  <si>
-    <t>168,666</t>
   </si>
   <si>
     <t>預收股款（權益項下）之約當發行股數（單位：股）</t>
@@ -2707,98 +814,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>2641827</v>
       </c>
       <c r="C2" t="n">
         <v>30.81</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>2573114</v>
       </c>
       <c r="E2" t="n">
         <v>29.45</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>2491616</v>
       </c>
       <c r="G2" t="n">
         <v>28.58</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>2435301</v>
       </c>
       <c r="I2" t="n">
         <v>28.37</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>2416387</v>
       </c>
       <c r="K2" t="n">
         <v>28.61</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>2366025</v>
       </c>
       <c r="M2" t="n">
         <v>27.81</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>2306076</v>
       </c>
       <c r="O2" t="n">
         <v>27.41</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>2300176</v>
       </c>
       <c r="Q2" t="n">
         <v>27.5</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>2243101</v>
       </c>
       <c r="S2" t="n">
         <v>27.33</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>2204299</v>
       </c>
       <c r="U2" t="n">
         <v>26.45</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>2154830</v>
       </c>
       <c r="W2" t="n">
         <v>26.85</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>2157348</v>
       </c>
       <c r="Y2" t="n">
         <v>27.46</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>2092281</v>
       </c>
       <c r="AA2" t="n">
         <v>27.03</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>2020616</v>
       </c>
       <c r="AC2" t="n">
         <v>26.14</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>1960320</v>
       </c>
       <c r="AE2" t="n">
         <v>25.13</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>1899736</v>
       </c>
       <c r="AG2" t="n">
         <v>24.5</v>
@@ -2806,16 +913,16 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2824,14 +931,14 @@
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
-      <c r="J3" t="s">
-        <v>50</v>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>50</v>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2859,100 +966,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>87111</v>
       </c>
       <c r="C4" t="n">
         <v>1.02</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
+      <c r="D4" t="n">
+        <v>74969</v>
       </c>
       <c r="E4" t="n">
         <v>0.86</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
+      <c r="F4" t="n">
+        <v>72399</v>
       </c>
       <c r="G4" t="n">
         <v>0.83</v>
       </c>
-      <c r="H4" t="s">
-        <v>55</v>
+      <c r="H4" t="n">
+        <v>62399</v>
       </c>
       <c r="I4" t="n">
         <v>0.73</v>
       </c>
-      <c r="J4" t="s">
-        <v>55</v>
+      <c r="J4" t="n">
+        <v>62399</v>
       </c>
       <c r="K4" t="n">
         <v>0.74</v>
       </c>
-      <c r="L4" t="s">
-        <v>55</v>
+      <c r="L4" t="n">
+        <v>62399</v>
       </c>
       <c r="M4" t="n">
         <v>0.73</v>
       </c>
-      <c r="N4" t="s">
-        <v>55</v>
+      <c r="N4" t="n">
+        <v>62399</v>
       </c>
       <c r="O4" t="n">
         <v>0.74</v>
       </c>
-      <c r="P4" t="s">
-        <v>56</v>
+      <c r="P4" t="n">
+        <v>56266</v>
       </c>
       <c r="Q4" t="n">
         <v>0.67</v>
       </c>
-      <c r="R4" t="s">
-        <v>57</v>
+      <c r="R4" t="n">
+        <v>53081</v>
       </c>
       <c r="S4" t="n">
         <v>0.65</v>
       </c>
-      <c r="T4" t="s">
-        <v>57</v>
+      <c r="T4" t="n">
+        <v>53081</v>
       </c>
       <c r="U4" t="n">
         <v>0.64</v>
       </c>
-      <c r="V4" t="s">
-        <v>58</v>
+      <c r="V4" t="n">
+        <v>47081</v>
       </c>
       <c r="W4" t="n">
         <v>0.59</v>
       </c>
-      <c r="X4" t="s">
-        <v>59</v>
+      <c r="X4" t="n">
+        <v>42766</v>
       </c>
       <c r="Y4" t="n">
         <v>0.54</v>
       </c>
-      <c r="Z4" t="s">
-        <v>59</v>
+      <c r="Z4" t="n">
+        <v>42766</v>
       </c>
       <c r="AA4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AB4" t="s">
-        <v>60</v>
+      <c r="AB4" t="n">
+        <v>37666</v>
       </c>
       <c r="AC4" t="n">
         <v>0.49</v>
       </c>
-      <c r="AD4" t="s">
-        <v>60</v>
+      <c r="AD4" t="n">
+        <v>37666</v>
       </c>
       <c r="AE4" t="n">
         <v>0.48</v>
       </c>
-      <c r="AF4" t="s">
-        <v>60</v>
+      <c r="AF4" t="n">
+        <v>37666</v>
       </c>
       <c r="AG4" t="n">
         <v>0.49</v>
@@ -2960,100 +1067,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>199978</v>
       </c>
       <c r="C5" t="n">
         <v>2.33</v>
       </c>
-      <c r="D5" t="s">
-        <v>63</v>
+      <c r="D5" t="n">
+        <v>241247</v>
       </c>
       <c r="E5" t="n">
         <v>2.76</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
+      <c r="F5" t="n">
+        <v>296549</v>
       </c>
       <c r="G5" t="n">
         <v>3.4</v>
       </c>
-      <c r="H5" t="s">
-        <v>65</v>
+      <c r="H5" t="n">
+        <v>309849</v>
       </c>
       <c r="I5" t="n">
         <v>3.61</v>
       </c>
-      <c r="J5" t="s">
-        <v>66</v>
+      <c r="J5" t="n">
+        <v>382864</v>
       </c>
       <c r="K5" t="n">
         <v>4.53</v>
       </c>
-      <c r="L5" t="s">
-        <v>67</v>
+      <c r="L5" t="n">
+        <v>352292</v>
       </c>
       <c r="M5" t="n">
         <v>4.14</v>
       </c>
-      <c r="N5" t="s">
-        <v>68</v>
+      <c r="N5" t="n">
+        <v>433670</v>
       </c>
       <c r="O5" t="n">
         <v>5.15</v>
       </c>
-      <c r="P5" t="s">
-        <v>69</v>
+      <c r="P5" t="n">
+        <v>508990</v>
       </c>
       <c r="Q5" t="n">
         <v>6.09</v>
       </c>
-      <c r="R5" t="s">
-        <v>70</v>
+      <c r="R5" t="n">
+        <v>665288</v>
       </c>
       <c r="S5" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="T5" t="s">
-        <v>71</v>
+      <c r="T5" t="n">
+        <v>581695</v>
       </c>
       <c r="U5" t="n">
         <v>6.98</v>
       </c>
-      <c r="V5" t="s">
-        <v>72</v>
+      <c r="V5" t="n">
+        <v>673475</v>
       </c>
       <c r="W5" t="n">
         <v>8.390000000000001</v>
       </c>
-      <c r="X5" t="s">
-        <v>73</v>
+      <c r="X5" t="n">
+        <v>728106</v>
       </c>
       <c r="Y5" t="n">
         <v>9.27</v>
       </c>
-      <c r="Z5" t="s">
-        <v>74</v>
+      <c r="Z5" t="n">
+        <v>831498</v>
       </c>
       <c r="AA5" t="n">
         <v>10.74</v>
       </c>
-      <c r="AB5" t="s">
-        <v>75</v>
+      <c r="AB5" t="n">
+        <v>578923</v>
       </c>
       <c r="AC5" t="n">
         <v>7.49</v>
       </c>
-      <c r="AD5" t="s">
-        <v>76</v>
+      <c r="AD5" t="n">
+        <v>657936</v>
       </c>
       <c r="AE5" t="n">
         <v>8.43</v>
       </c>
-      <c r="AF5" t="s">
-        <v>77</v>
+      <c r="AF5" t="n">
+        <v>696907</v>
       </c>
       <c r="AG5" t="n">
         <v>8.99</v>
@@ -3061,46 +1168,46 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59999</v>
       </c>
       <c r="C6" t="n">
         <v>0.7</v>
       </c>
-      <c r="D6" t="s">
-        <v>80</v>
+      <c r="D6" t="n">
+        <v>42181</v>
       </c>
       <c r="E6" t="n">
         <v>0.48</v>
       </c>
-      <c r="F6" t="s">
-        <v>81</v>
+      <c r="F6" t="n">
+        <v>41970</v>
       </c>
       <c r="G6" t="n">
         <v>0.48</v>
       </c>
-      <c r="H6" t="s">
-        <v>82</v>
+      <c r="H6" t="n">
+        <v>40355</v>
       </c>
       <c r="I6" t="n">
         <v>0.47</v>
       </c>
-      <c r="J6" t="s">
-        <v>83</v>
+      <c r="J6" t="n">
+        <v>46573</v>
       </c>
       <c r="K6" t="n">
         <v>0.55</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
+      <c r="L6" t="n">
+        <v>37631</v>
       </c>
       <c r="M6" t="n">
         <v>0.44</v>
       </c>
-      <c r="N6" t="s">
-        <v>85</v>
+      <c r="N6" t="n">
+        <v>27088</v>
       </c>
       <c r="O6" t="n">
         <v>0.32</v>
@@ -3126,100 +1233,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>120064</v>
       </c>
       <c r="C7" t="n">
         <v>1.4</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
+      <c r="D7" t="n">
+        <v>122249</v>
       </c>
       <c r="E7" t="n">
         <v>1.4</v>
       </c>
-      <c r="F7" t="s">
-        <v>89</v>
+      <c r="F7" t="n">
+        <v>118980</v>
       </c>
       <c r="G7" t="n">
         <v>1.36</v>
       </c>
-      <c r="H7" t="s">
-        <v>90</v>
+      <c r="H7" t="n">
+        <v>106838</v>
       </c>
       <c r="I7" t="n">
         <v>1.24</v>
       </c>
-      <c r="J7" t="s">
-        <v>91</v>
+      <c r="J7" t="n">
+        <v>107351</v>
       </c>
       <c r="K7" t="n">
         <v>1.27</v>
       </c>
-      <c r="L7" t="s">
-        <v>92</v>
+      <c r="L7" t="n">
+        <v>95990</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
       </c>
-      <c r="N7" t="s">
-        <v>93</v>
+      <c r="N7" t="n">
+        <v>81568</v>
       </c>
       <c r="O7" t="n">
         <v>0.97</v>
       </c>
-      <c r="P7" t="s">
-        <v>94</v>
+      <c r="P7" t="n">
+        <v>141895</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
       </c>
-      <c r="R7" t="s">
-        <v>95</v>
+      <c r="R7" t="n">
+        <v>127189</v>
       </c>
       <c r="S7" t="n">
         <v>1.55</v>
       </c>
-      <c r="T7" t="s">
-        <v>96</v>
+      <c r="T7" t="n">
+        <v>153030</v>
       </c>
       <c r="U7" t="n">
         <v>1.84</v>
       </c>
-      <c r="V7" t="s">
-        <v>97</v>
+      <c r="V7" t="n">
+        <v>153574</v>
       </c>
       <c r="W7" t="n">
         <v>1.91</v>
       </c>
-      <c r="X7" t="s">
-        <v>98</v>
+      <c r="X7" t="n">
+        <v>177052</v>
       </c>
       <c r="Y7" t="n">
         <v>2.25</v>
       </c>
-      <c r="Z7" t="s">
-        <v>99</v>
+      <c r="Z7" t="n">
+        <v>197943</v>
       </c>
       <c r="AA7" t="n">
         <v>2.56</v>
       </c>
-      <c r="AB7" t="s">
-        <v>100</v>
+      <c r="AB7" t="n">
+        <v>199699</v>
       </c>
       <c r="AC7" t="n">
         <v>2.58</v>
       </c>
-      <c r="AD7" t="s">
-        <v>101</v>
+      <c r="AD7" t="n">
+        <v>175531</v>
       </c>
       <c r="AE7" t="n">
         <v>2.25</v>
       </c>
-      <c r="AF7" t="s">
-        <v>102</v>
+      <c r="AF7" t="n">
+        <v>169905</v>
       </c>
       <c r="AG7" t="n">
         <v>2.19</v>
@@ -3227,16 +1334,16 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3245,14 +1352,14 @@
       <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
-      <c r="J8" t="s">
-        <v>50</v>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>50</v>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3273,14 +1380,14 @@
       <c r="AA8" t="s"/>
       <c r="AB8" t="s"/>
       <c r="AC8" t="s"/>
-      <c r="AD8" t="s">
-        <v>104</v>
+      <c r="AD8" t="n">
+        <v>16480</v>
       </c>
       <c r="AE8" t="n">
         <v>0.21</v>
       </c>
-      <c r="AF8" t="s">
-        <v>104</v>
+      <c r="AF8" t="n">
+        <v>16480</v>
       </c>
       <c r="AG8" t="n">
         <v>0.21</v>
@@ -3288,100 +1395,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>168970</v>
       </c>
       <c r="C9" t="n">
         <v>1.97</v>
       </c>
-      <c r="D9" t="s">
-        <v>107</v>
+      <c r="D9" t="n">
+        <v>175726</v>
       </c>
       <c r="E9" t="n">
         <v>2.01</v>
       </c>
-      <c r="F9" t="s">
-        <v>108</v>
+      <c r="F9" t="n">
+        <v>183411</v>
       </c>
       <c r="G9" t="n">
         <v>2.1</v>
       </c>
-      <c r="H9" t="s">
-        <v>109</v>
+      <c r="H9" t="n">
+        <v>206823</v>
       </c>
       <c r="I9" t="n">
         <v>2.41</v>
       </c>
-      <c r="J9" t="s">
-        <v>110</v>
+      <c r="J9" t="n">
+        <v>199516</v>
       </c>
       <c r="K9" t="n">
         <v>2.36</v>
       </c>
-      <c r="L9" t="s">
-        <v>111</v>
+      <c r="L9" t="n">
+        <v>399506</v>
       </c>
       <c r="M9" t="n">
         <v>4.7</v>
       </c>
-      <c r="N9" t="s">
-        <v>112</v>
+      <c r="N9" t="n">
+        <v>203215</v>
       </c>
       <c r="O9" t="n">
         <v>2.42</v>
       </c>
-      <c r="P9" t="s">
-        <v>113</v>
+      <c r="P9" t="n">
+        <v>197092</v>
       </c>
       <c r="Q9" t="n">
         <v>2.36</v>
       </c>
-      <c r="R9" t="s">
-        <v>114</v>
+      <c r="R9" t="n">
+        <v>198041</v>
       </c>
       <c r="S9" t="n">
         <v>2.41</v>
       </c>
-      <c r="T9" t="s">
-        <v>115</v>
+      <c r="T9" t="n">
+        <v>495188</v>
       </c>
       <c r="U9" t="n">
         <v>5.94</v>
       </c>
-      <c r="V9" t="s">
-        <v>116</v>
+      <c r="V9" t="n">
+        <v>192190</v>
       </c>
       <c r="W9" t="n">
         <v>2.39</v>
       </c>
-      <c r="X9" t="s">
-        <v>117</v>
+      <c r="X9" t="n">
+        <v>250828</v>
       </c>
       <c r="Y9" t="n">
         <v>3.19</v>
       </c>
-      <c r="Z9" t="s">
-        <v>118</v>
+      <c r="Z9" t="n">
+        <v>193429</v>
       </c>
       <c r="AA9" t="n">
         <v>2.5</v>
       </c>
-      <c r="AB9" t="s">
-        <v>119</v>
+      <c r="AB9" t="n">
+        <v>544810</v>
       </c>
       <c r="AC9" t="n">
         <v>7.05</v>
       </c>
-      <c r="AD9" t="s">
-        <v>120</v>
+      <c r="AD9" t="n">
+        <v>199096</v>
       </c>
       <c r="AE9" t="n">
         <v>2.55</v>
       </c>
-      <c r="AF9" t="s">
-        <v>121</v>
+      <c r="AF9" t="n">
+        <v>192032</v>
       </c>
       <c r="AG9" t="n">
         <v>2.48</v>
@@ -3389,16 +1496,16 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3407,14 +1514,14 @@
       <c r="G10" t="s"/>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
-      <c r="J10" t="s">
-        <v>50</v>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>50</v>
+      <c r="L10" t="n">
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -3442,100 +1549,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5719</v>
       </c>
       <c r="C11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D11" t="s">
-        <v>125</v>
+      <c r="D11" t="n">
+        <v>3804</v>
       </c>
       <c r="E11" t="n">
         <v>0.04</v>
       </c>
-      <c r="F11" t="s">
-        <v>126</v>
+      <c r="F11" t="n">
+        <v>6188</v>
       </c>
       <c r="G11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H11" t="s">
-        <v>127</v>
+      <c r="H11" t="n">
+        <v>5800</v>
       </c>
       <c r="I11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J11" t="s">
-        <v>128</v>
+      <c r="J11" t="n">
+        <v>3775</v>
       </c>
       <c r="K11" t="n">
         <v>0.04</v>
       </c>
-      <c r="L11" t="s">
-        <v>129</v>
+      <c r="L11" t="n">
+        <v>3043</v>
       </c>
       <c r="M11" t="n">
         <v>0.04</v>
       </c>
-      <c r="N11" t="s">
-        <v>130</v>
+      <c r="N11" t="n">
+        <v>8266</v>
       </c>
       <c r="O11" t="n">
         <v>0.1</v>
       </c>
-      <c r="P11" t="s">
-        <v>131</v>
+      <c r="P11" t="n">
+        <v>3817</v>
       </c>
       <c r="Q11" t="n">
         <v>0.05</v>
       </c>
-      <c r="R11" t="s">
-        <v>132</v>
+      <c r="R11" t="n">
+        <v>3837</v>
       </c>
       <c r="S11" t="n">
         <v>0.05</v>
       </c>
-      <c r="T11" t="s">
-        <v>133</v>
+      <c r="T11" t="n">
+        <v>1403</v>
       </c>
       <c r="U11" t="n">
         <v>0.02</v>
       </c>
-      <c r="V11" t="s">
-        <v>134</v>
+      <c r="V11" t="n">
+        <v>2068</v>
       </c>
       <c r="W11" t="n">
         <v>0.03</v>
       </c>
-      <c r="X11" t="s">
-        <v>135</v>
+      <c r="X11" t="n">
+        <v>5087</v>
       </c>
       <c r="Y11" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z11" t="s">
-        <v>136</v>
+      <c r="Z11" t="n">
+        <v>36928</v>
       </c>
       <c r="AA11" t="n">
         <v>0.48</v>
       </c>
-      <c r="AB11" t="s">
-        <v>137</v>
+      <c r="AB11" t="n">
+        <v>19656</v>
       </c>
       <c r="AC11" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD11" t="s">
-        <v>138</v>
+      <c r="AD11" t="n">
+        <v>49674</v>
       </c>
       <c r="AE11" t="n">
         <v>0.64</v>
       </c>
-      <c r="AF11" t="s">
-        <v>139</v>
+      <c r="AF11" t="n">
+        <v>1927</v>
       </c>
       <c r="AG11" t="n">
         <v>0.02</v>
@@ -3543,100 +1650,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55075</v>
       </c>
       <c r="C12" t="n">
         <v>0.64</v>
       </c>
-      <c r="D12" t="s">
-        <v>142</v>
+      <c r="D12" t="n">
+        <v>36224</v>
       </c>
       <c r="E12" t="n">
         <v>0.41</v>
       </c>
-      <c r="F12" t="s">
-        <v>143</v>
+      <c r="F12" t="n">
+        <v>36223</v>
       </c>
       <c r="G12" t="n">
         <v>0.42</v>
       </c>
-      <c r="H12" t="s">
-        <v>144</v>
+      <c r="H12" t="n">
+        <v>32262</v>
       </c>
       <c r="I12" t="n">
         <v>0.38</v>
       </c>
-      <c r="J12" t="s">
-        <v>145</v>
+      <c r="J12" t="n">
+        <v>42128</v>
       </c>
       <c r="K12" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" t="s">
-        <v>146</v>
+      <c r="L12" t="n">
+        <v>33488</v>
       </c>
       <c r="M12" t="n">
         <v>0.39</v>
       </c>
-      <c r="N12" t="s">
-        <v>147</v>
+      <c r="N12" t="n">
+        <v>21092</v>
       </c>
       <c r="O12" t="n">
         <v>0.25</v>
       </c>
-      <c r="P12" t="s">
-        <v>148</v>
+      <c r="P12" t="n">
+        <v>28252</v>
       </c>
       <c r="Q12" t="n">
         <v>0.34</v>
       </c>
-      <c r="R12" t="s">
-        <v>149</v>
+      <c r="R12" t="n">
+        <v>29700</v>
       </c>
       <c r="S12" t="n">
         <v>0.36</v>
       </c>
-      <c r="T12" t="s">
-        <v>150</v>
+      <c r="T12" t="n">
+        <v>17142</v>
       </c>
       <c r="U12" t="n">
         <v>0.21</v>
       </c>
-      <c r="V12" t="s">
-        <v>151</v>
+      <c r="V12" t="n">
+        <v>20316</v>
       </c>
       <c r="W12" t="n">
         <v>0.25</v>
       </c>
-      <c r="X12" t="s">
-        <v>152</v>
+      <c r="X12" t="n">
+        <v>36356</v>
       </c>
       <c r="Y12" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z12" t="s">
-        <v>153</v>
+      <c r="Z12" t="n">
+        <v>31701</v>
       </c>
       <c r="AA12" t="n">
         <v>0.41</v>
       </c>
-      <c r="AB12" t="s">
-        <v>154</v>
+      <c r="AB12" t="n">
+        <v>38754</v>
       </c>
       <c r="AC12" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD12" t="s">
-        <v>155</v>
+      <c r="AD12" t="n">
+        <v>36514</v>
       </c>
       <c r="AE12" t="n">
         <v>0.47</v>
       </c>
-      <c r="AF12" t="s">
-        <v>156</v>
+      <c r="AF12" t="n">
+        <v>27400</v>
       </c>
       <c r="AG12" t="n">
         <v>0.35</v>
@@ -3644,16 +1751,16 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3662,14 +1769,14 @@
       <c r="G13" t="s"/>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
-      <c r="J13" t="s">
-        <v>50</v>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>50</v>
+      <c r="L13" t="n">
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -3697,100 +1804,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>642500</v>
       </c>
       <c r="C14" t="n">
         <v>7.49</v>
       </c>
-      <c r="D14" t="s">
-        <v>160</v>
+      <c r="D14" t="n">
+        <v>606090</v>
       </c>
       <c r="E14" t="n">
         <v>6.94</v>
       </c>
-      <c r="F14" t="s">
-        <v>161</v>
+      <c r="F14" t="n">
+        <v>650972</v>
       </c>
       <c r="G14" t="n">
         <v>7.47</v>
       </c>
-      <c r="H14" t="s">
-        <v>162</v>
+      <c r="H14" t="n">
+        <v>659337</v>
       </c>
       <c r="I14" t="n">
         <v>7.68</v>
       </c>
-      <c r="J14" t="s">
-        <v>163</v>
+      <c r="J14" t="n">
+        <v>618698</v>
       </c>
       <c r="K14" t="n">
         <v>7.33</v>
       </c>
-      <c r="L14" t="s">
-        <v>164</v>
+      <c r="L14" t="n">
+        <v>655044</v>
       </c>
       <c r="M14" t="n">
         <v>7.7</v>
       </c>
-      <c r="N14" t="s">
-        <v>165</v>
+      <c r="N14" t="n">
+        <v>754619</v>
       </c>
       <c r="O14" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="P14" t="s">
-        <v>166</v>
+      <c r="P14" t="n">
+        <v>1074944</v>
       </c>
       <c r="Q14" t="n">
         <v>12.85</v>
       </c>
-      <c r="R14" t="s">
-        <v>167</v>
+      <c r="R14" t="n">
+        <v>1072144</v>
       </c>
       <c r="S14" t="n">
         <v>13.06</v>
       </c>
-      <c r="T14" t="s">
-        <v>168</v>
+      <c r="T14" t="n">
+        <v>1016493</v>
       </c>
       <c r="U14" t="n">
         <v>12.2</v>
       </c>
-      <c r="V14" t="s">
-        <v>169</v>
+      <c r="V14" t="n">
+        <v>648643</v>
       </c>
       <c r="W14" t="n">
         <v>8.08</v>
       </c>
-      <c r="X14" t="s">
-        <v>170</v>
+      <c r="X14" t="n">
+        <v>617230</v>
       </c>
       <c r="Y14" t="n">
         <v>7.86</v>
       </c>
-      <c r="Z14" t="s">
-        <v>171</v>
+      <c r="Z14" t="n">
+        <v>654334</v>
       </c>
       <c r="AA14" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="AB14" t="s">
-        <v>172</v>
+      <c r="AB14" t="n">
+        <v>685419</v>
       </c>
       <c r="AC14" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="AD14" t="s">
-        <v>173</v>
+      <c r="AD14" t="n">
+        <v>530264</v>
       </c>
       <c r="AE14" t="n">
         <v>6.8</v>
       </c>
-      <c r="AF14" t="s">
-        <v>174</v>
+      <c r="AF14" t="n">
+        <v>483558</v>
       </c>
       <c r="AG14" t="n">
         <v>6.24</v>
@@ -3798,100 +1905,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" t="s">
-        <v>176</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>253953</v>
       </c>
       <c r="C15" t="n">
         <v>2.96</v>
       </c>
-      <c r="D15" t="s">
-        <v>177</v>
+      <c r="D15" t="n">
+        <v>307106</v>
       </c>
       <c r="E15" t="n">
         <v>3.51</v>
       </c>
-      <c r="F15" t="s">
-        <v>178</v>
+      <c r="F15" t="n">
+        <v>316568</v>
       </c>
       <c r="G15" t="n">
         <v>3.63</v>
       </c>
-      <c r="H15" t="s">
-        <v>179</v>
+      <c r="H15" t="n">
+        <v>282150</v>
       </c>
       <c r="I15" t="n">
         <v>3.29</v>
       </c>
-      <c r="J15" t="s">
-        <v>180</v>
+      <c r="J15" t="n">
+        <v>284592</v>
       </c>
       <c r="K15" t="n">
         <v>3.37</v>
       </c>
-      <c r="L15" t="s">
-        <v>181</v>
+      <c r="L15" t="n">
+        <v>286651</v>
       </c>
       <c r="M15" t="n">
         <v>3.37</v>
       </c>
-      <c r="N15" t="s">
-        <v>182</v>
+      <c r="N15" t="n">
+        <v>283337</v>
       </c>
       <c r="O15" t="n">
         <v>3.37</v>
       </c>
-      <c r="P15" t="s">
-        <v>183</v>
+      <c r="P15" t="n">
+        <v>234595</v>
       </c>
       <c r="Q15" t="n">
         <v>2.81</v>
       </c>
-      <c r="R15" t="s">
-        <v>184</v>
+      <c r="R15" t="n">
+        <v>234261</v>
       </c>
       <c r="S15" t="n">
         <v>2.85</v>
       </c>
-      <c r="T15" t="s">
-        <v>185</v>
+      <c r="T15" t="n">
+        <v>284938</v>
       </c>
       <c r="U15" t="n">
         <v>3.42</v>
       </c>
-      <c r="V15" t="s">
-        <v>186</v>
+      <c r="V15" t="n">
+        <v>194880</v>
       </c>
       <c r="W15" t="n">
         <v>2.43</v>
       </c>
-      <c r="X15" t="s">
-        <v>187</v>
+      <c r="X15" t="n">
+        <v>189421</v>
       </c>
       <c r="Y15" t="n">
         <v>2.41</v>
       </c>
-      <c r="Z15" t="s">
-        <v>188</v>
+      <c r="Z15" t="n">
+        <v>189358</v>
       </c>
       <c r="AA15" t="n">
         <v>2.45</v>
       </c>
-      <c r="AB15" t="s">
-        <v>189</v>
+      <c r="AB15" t="n">
+        <v>196221</v>
       </c>
       <c r="AC15" t="n">
         <v>2.54</v>
       </c>
-      <c r="AD15" t="s">
-        <v>190</v>
+      <c r="AD15" t="n">
+        <v>366356</v>
       </c>
       <c r="AE15" t="n">
         <v>4.7</v>
       </c>
-      <c r="AF15" t="s">
-        <v>191</v>
+      <c r="AF15" t="n">
+        <v>387111</v>
       </c>
       <c r="AG15" t="n">
         <v>4.99</v>
@@ -3899,100 +2006,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>193</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>472255</v>
       </c>
       <c r="C16" t="n">
         <v>5.51</v>
       </c>
-      <c r="D16" t="s">
-        <v>194</v>
+      <c r="D16" t="n">
+        <v>465700</v>
       </c>
       <c r="E16" t="n">
         <v>5.33</v>
       </c>
-      <c r="F16" t="s">
-        <v>195</v>
+      <c r="F16" t="n">
+        <v>463114</v>
       </c>
       <c r="G16" t="n">
         <v>5.31</v>
       </c>
-      <c r="H16" t="s">
-        <v>196</v>
+      <c r="H16" t="n">
+        <v>458741</v>
       </c>
       <c r="I16" t="n">
         <v>5.34</v>
       </c>
-      <c r="J16" t="s">
-        <v>197</v>
+      <c r="J16" t="n">
+        <v>458445</v>
       </c>
       <c r="K16" t="n">
         <v>5.43</v>
       </c>
-      <c r="L16" t="s">
-        <v>198</v>
+      <c r="L16" t="n">
+        <v>453432</v>
       </c>
       <c r="M16" t="n">
         <v>5.33</v>
       </c>
-      <c r="N16" t="s">
-        <v>199</v>
+      <c r="N16" t="n">
+        <v>432971</v>
       </c>
       <c r="O16" t="n">
         <v>5.15</v>
       </c>
-      <c r="P16" t="s">
-        <v>200</v>
+      <c r="P16" t="n">
+        <v>422607</v>
       </c>
       <c r="Q16" t="n">
         <v>5.05</v>
       </c>
-      <c r="R16" t="s">
-        <v>201</v>
+      <c r="R16" t="n">
+        <v>424274</v>
       </c>
       <c r="S16" t="n">
         <v>5.17</v>
       </c>
-      <c r="T16" t="s">
-        <v>202</v>
+      <c r="T16" t="n">
+        <v>424327</v>
       </c>
       <c r="U16" t="n">
         <v>5.09</v>
       </c>
-      <c r="V16" t="s">
-        <v>203</v>
+      <c r="V16" t="n">
+        <v>417581</v>
       </c>
       <c r="W16" t="n">
         <v>5.2</v>
       </c>
-      <c r="X16" t="s">
-        <v>204</v>
+      <c r="X16" t="n">
+        <v>421975</v>
       </c>
       <c r="Y16" t="n">
         <v>5.37</v>
       </c>
-      <c r="Z16" t="s">
-        <v>205</v>
+      <c r="Z16" t="n">
+        <v>139435</v>
       </c>
       <c r="AA16" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB16" t="s">
-        <v>206</v>
+      <c r="AB16" t="n">
+        <v>146071</v>
       </c>
       <c r="AC16" t="n">
         <v>1.89</v>
       </c>
-      <c r="AD16" t="s">
-        <v>207</v>
+      <c r="AD16" t="n">
+        <v>145966</v>
       </c>
       <c r="AE16" t="n">
         <v>1.87</v>
       </c>
-      <c r="AF16" t="s">
-        <v>208</v>
+      <c r="AF16" t="n">
+        <v>150969</v>
       </c>
       <c r="AG16" t="n">
         <v>1.95</v>
@@ -4000,100 +2107,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>210</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>309527</v>
       </c>
       <c r="C17" t="n">
         <v>3.61</v>
       </c>
-      <c r="D17" t="s">
-        <v>211</v>
+      <c r="D17" t="n">
+        <v>298009</v>
       </c>
       <c r="E17" t="n">
         <v>3.41</v>
       </c>
-      <c r="F17" t="s">
-        <v>212</v>
+      <c r="F17" t="n">
+        <v>293941</v>
       </c>
       <c r="G17" t="n">
         <v>3.37</v>
       </c>
-      <c r="H17" t="s">
-        <v>213</v>
+      <c r="H17" t="n">
+        <v>297199</v>
       </c>
       <c r="I17" t="n">
         <v>3.46</v>
       </c>
-      <c r="J17" t="s">
-        <v>214</v>
+      <c r="J17" t="n">
+        <v>301072</v>
       </c>
       <c r="K17" t="n">
         <v>3.57</v>
       </c>
-      <c r="L17" t="s">
-        <v>215</v>
+      <c r="L17" t="n">
+        <v>356129</v>
       </c>
       <c r="M17" t="n">
         <v>4.19</v>
       </c>
-      <c r="N17" t="s">
-        <v>216</v>
+      <c r="N17" t="n">
+        <v>348071</v>
       </c>
       <c r="O17" t="n">
         <v>4.14</v>
       </c>
-      <c r="P17" t="s">
-        <v>217</v>
+      <c r="P17" t="n">
+        <v>314755</v>
       </c>
       <c r="Q17" t="n">
         <v>3.76</v>
       </c>
-      <c r="R17" t="s">
-        <v>218</v>
+      <c r="R17" t="n">
+        <v>318287</v>
       </c>
       <c r="S17" t="n">
         <v>3.88</v>
       </c>
-      <c r="T17" t="s">
-        <v>219</v>
+      <c r="T17" t="n">
+        <v>284580</v>
       </c>
       <c r="U17" t="n">
         <v>3.41</v>
       </c>
-      <c r="V17" t="s">
-        <v>220</v>
+      <c r="V17" t="n">
+        <v>352405</v>
       </c>
       <c r="W17" t="n">
         <v>4.39</v>
       </c>
-      <c r="X17" t="s">
-        <v>221</v>
+      <c r="X17" t="n">
+        <v>291602</v>
       </c>
       <c r="Y17" t="n">
         <v>3.71</v>
       </c>
-      <c r="Z17" t="s">
-        <v>222</v>
+      <c r="Z17" t="n">
+        <v>278656</v>
       </c>
       <c r="AA17" t="n">
         <v>3.6</v>
       </c>
-      <c r="AB17" t="s">
-        <v>223</v>
+      <c r="AB17" t="n">
+        <v>307456</v>
       </c>
       <c r="AC17" t="n">
         <v>3.98</v>
       </c>
-      <c r="AD17" t="s">
-        <v>224</v>
+      <c r="AD17" t="n">
+        <v>309962</v>
       </c>
       <c r="AE17" t="n">
         <v>3.97</v>
       </c>
-      <c r="AF17" t="s">
-        <v>225</v>
+      <c r="AF17" t="n">
+        <v>315683</v>
       </c>
       <c r="AG17" t="n">
         <v>4.07</v>
@@ -4101,46 +2208,46 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" t="s">
-        <v>227</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-4924</v>
       </c>
       <c r="C18" t="n">
         <v>-0.06</v>
       </c>
-      <c r="D18" t="s">
-        <v>228</v>
+      <c r="D18" t="n">
+        <v>-5957</v>
       </c>
       <c r="E18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="F18" t="s">
-        <v>229</v>
+      <c r="F18" t="n">
+        <v>-5747</v>
       </c>
       <c r="G18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="H18" t="s">
-        <v>230</v>
+      <c r="H18" t="n">
+        <v>-8093</v>
       </c>
       <c r="I18" t="n">
         <v>-0.09</v>
       </c>
-      <c r="J18" t="s">
-        <v>231</v>
+      <c r="J18" t="n">
+        <v>-4445</v>
       </c>
       <c r="K18" t="n">
         <v>-0.05</v>
       </c>
-      <c r="L18" t="s">
-        <v>232</v>
+      <c r="L18" t="n">
+        <v>-4143</v>
       </c>
       <c r="M18" t="n">
         <v>-0.05</v>
       </c>
-      <c r="N18" t="s">
-        <v>233</v>
+      <c r="N18" t="n">
+        <v>-5996</v>
       </c>
       <c r="O18" t="n">
         <v>-0.07000000000000001</v>
@@ -4166,16 +2273,16 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>50</v>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4184,14 +2291,14 @@
       <c r="G19" t="s"/>
       <c r="H19" t="s"/>
       <c r="I19" t="s"/>
-      <c r="J19" t="s">
-        <v>50</v>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>50</v>
+      <c r="L19" t="n">
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -4219,100 +2326,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" t="s">
-        <v>236</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3590014</v>
       </c>
       <c r="C20" t="n">
         <v>41.87</v>
       </c>
-      <c r="D20" t="s">
-        <v>237</v>
+      <c r="D20" t="n">
+        <v>3706341</v>
       </c>
       <c r="E20" t="n">
         <v>42.42</v>
       </c>
-      <c r="F20" t="s">
-        <v>238</v>
+      <c r="F20" t="n">
+        <v>3732588</v>
       </c>
       <c r="G20" t="n">
         <v>42.82</v>
       </c>
-      <c r="H20" t="s">
-        <v>239</v>
+      <c r="H20" t="n">
+        <v>3627749</v>
       </c>
       <c r="I20" t="n">
         <v>42.27</v>
       </c>
-      <c r="J20" t="s">
-        <v>240</v>
+      <c r="J20" t="n">
+        <v>3566335</v>
       </c>
       <c r="K20" t="n">
         <v>42.23</v>
       </c>
-      <c r="L20" t="s">
-        <v>241</v>
+      <c r="L20" t="n">
+        <v>3623617</v>
       </c>
       <c r="M20" t="n">
         <v>42.59</v>
       </c>
-      <c r="N20" t="s">
-        <v>242</v>
+      <c r="N20" t="n">
+        <v>3647309</v>
       </c>
       <c r="O20" t="n">
         <v>43.35</v>
       </c>
-      <c r="P20" t="s">
-        <v>243</v>
+      <c r="P20" t="n">
+        <v>3570708</v>
       </c>
       <c r="Q20" t="n">
         <v>42.7</v>
       </c>
-      <c r="R20" t="s">
-        <v>244</v>
+      <c r="R20" t="n">
+        <v>3544763</v>
       </c>
       <c r="S20" t="n">
         <v>43.19</v>
       </c>
-      <c r="T20" t="s">
-        <v>245</v>
+      <c r="T20" t="n">
+        <v>3558046</v>
       </c>
       <c r="U20" t="n">
         <v>42.69</v>
       </c>
-      <c r="V20" t="s">
-        <v>246</v>
+      <c r="V20" t="n">
+        <v>3591614</v>
       </c>
       <c r="W20" t="n">
         <v>44.75</v>
       </c>
-      <c r="X20" t="s">
-        <v>247</v>
+      <c r="X20" t="n">
+        <v>3508275</v>
       </c>
       <c r="Y20" t="n">
         <v>44.66</v>
       </c>
-      <c r="Z20" t="s">
-        <v>248</v>
+      <c r="Z20" t="n">
+        <v>3598001</v>
       </c>
       <c r="AA20" t="n">
         <v>46.48</v>
       </c>
-      <c r="AB20" t="s">
-        <v>249</v>
+      <c r="AB20" t="n">
+        <v>3586785</v>
       </c>
       <c r="AC20" t="n">
         <v>46.39</v>
       </c>
-      <c r="AD20" t="s">
-        <v>250</v>
+      <c r="AD20" t="n">
+        <v>3574757</v>
       </c>
       <c r="AE20" t="n">
         <v>45.82</v>
       </c>
-      <c r="AF20" t="s">
-        <v>251</v>
+      <c r="AF20" t="n">
+        <v>3624700</v>
       </c>
       <c r="AG20" t="n">
         <v>46.75</v>
@@ -4320,16 +2427,16 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>50</v>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -4338,14 +2445,14 @@
       <c r="G21" t="s"/>
       <c r="H21" t="s"/>
       <c r="I21" t="s"/>
-      <c r="J21" t="s">
-        <v>50</v>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>50</v>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -4373,100 +2480,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>50</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>50</v>
+      <c r="H22" t="n">
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>50</v>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
-        <v>50</v>
+      <c r="L22" t="n">
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="s">
-        <v>50</v>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>50</v>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="s">
-        <v>50</v>
+      <c r="R22" t="n">
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="s">
-        <v>50</v>
+      <c r="T22" t="n">
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="s">
-        <v>50</v>
+      <c r="V22" t="n">
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>50</v>
+      <c r="X22" t="n">
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
-      <c r="Z22" t="s">
-        <v>50</v>
+      <c r="Z22" t="n">
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
-      <c r="AB22" t="s">
-        <v>50</v>
+      <c r="AB22" t="n">
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" t="s">
-        <v>50</v>
+      <c r="AD22" t="n">
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
-      <c r="AF22" t="s">
-        <v>50</v>
+      <c r="AF22" t="n">
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -4474,7 +2581,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -4496,8 +2603,8 @@
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="s"/>
-      <c r="V23" t="s">
-        <v>255</v>
+      <c r="V23" t="n">
+        <v>6124</v>
       </c>
       <c r="W23" t="n">
         <v>0.08</v>
@@ -4515,7 +2622,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -4525,63 +2632,63 @@
       <c r="G24" t="s"/>
       <c r="H24" t="s"/>
       <c r="I24" t="s"/>
-      <c r="J24" t="s">
-        <v>50</v>
+      <c r="J24" t="n">
+        <v>0</v>
       </c>
       <c r="K24" t="s"/>
-      <c r="L24" t="s">
-        <v>50</v>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
       <c r="M24" t="s"/>
-      <c r="N24" t="s">
-        <v>50</v>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
       <c r="O24" t="s"/>
-      <c r="P24" t="s">
-        <v>50</v>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
-      <c r="T24" t="s">
-        <v>50</v>
+      <c r="T24" t="n">
+        <v>0</v>
       </c>
       <c r="U24" t="s"/>
-      <c r="V24" t="s">
-        <v>50</v>
+      <c r="V24" t="n">
+        <v>0</v>
       </c>
       <c r="W24" t="s"/>
-      <c r="X24" t="s">
-        <v>50</v>
+      <c r="X24" t="n">
+        <v>0</v>
       </c>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
-      <c r="AB24" t="s">
-        <v>50</v>
+      <c r="AB24" t="n">
+        <v>0</v>
       </c>
       <c r="AC24" t="s"/>
-      <c r="AD24" t="s">
-        <v>50</v>
+      <c r="AD24" t="n">
+        <v>0</v>
       </c>
       <c r="AE24" t="s"/>
-      <c r="AF24" t="s">
-        <v>50</v>
+      <c r="AF24" t="n">
+        <v>0</v>
       </c>
       <c r="AG24" t="s"/>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>50</v>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4590,14 +2697,14 @@
       <c r="G25" t="s"/>
       <c r="H25" t="s"/>
       <c r="I25" t="s"/>
-      <c r="J25" t="s">
-        <v>50</v>
+      <c r="J25" t="n">
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
-        <v>50</v>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -4625,100 +2732,100 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" t="s">
-        <v>259</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>185925</v>
       </c>
       <c r="C26" t="n">
         <v>2.17</v>
       </c>
-      <c r="D26" t="s">
-        <v>260</v>
+      <c r="D26" t="n">
+        <v>197611</v>
       </c>
       <c r="E26" t="n">
         <v>2.26</v>
       </c>
-      <c r="F26" t="s">
-        <v>261</v>
+      <c r="F26" t="n">
+        <v>219667</v>
       </c>
       <c r="G26" t="n">
         <v>2.52</v>
       </c>
-      <c r="H26" t="s">
-        <v>262</v>
+      <c r="H26" t="n">
+        <v>217704</v>
       </c>
       <c r="I26" t="n">
         <v>2.54</v>
       </c>
-      <c r="J26" t="s">
-        <v>263</v>
+      <c r="J26" t="n">
+        <v>234933</v>
       </c>
       <c r="K26" t="n">
         <v>2.78</v>
       </c>
-      <c r="L26" t="s">
-        <v>264</v>
+      <c r="L26" t="n">
+        <v>218192</v>
       </c>
       <c r="M26" t="n">
         <v>2.56</v>
       </c>
-      <c r="N26" t="s">
-        <v>265</v>
+      <c r="N26" t="n">
+        <v>249416</v>
       </c>
       <c r="O26" t="n">
         <v>2.96</v>
       </c>
-      <c r="P26" t="s">
-        <v>266</v>
+      <c r="P26" t="n">
+        <v>224162</v>
       </c>
       <c r="Q26" t="n">
         <v>2.68</v>
       </c>
-      <c r="R26" t="s">
-        <v>267</v>
+      <c r="R26" t="n">
+        <v>171859</v>
       </c>
       <c r="S26" t="n">
         <v>2.09</v>
       </c>
-      <c r="T26" t="s">
-        <v>268</v>
+      <c r="T26" t="n">
+        <v>149854</v>
       </c>
       <c r="U26" t="n">
         <v>1.8</v>
       </c>
-      <c r="V26" t="s">
-        <v>269</v>
+      <c r="V26" t="n">
+        <v>169149</v>
       </c>
       <c r="W26" t="n">
         <v>2.11</v>
       </c>
-      <c r="X26" t="s">
-        <v>270</v>
+      <c r="X26" t="n">
+        <v>205547</v>
       </c>
       <c r="Y26" t="n">
         <v>2.62</v>
       </c>
-      <c r="Z26" t="s">
-        <v>271</v>
+      <c r="Z26" t="n">
+        <v>310498</v>
       </c>
       <c r="AA26" t="n">
         <v>4.01</v>
       </c>
-      <c r="AB26" t="s">
-        <v>272</v>
+      <c r="AB26" t="n">
+        <v>211464</v>
       </c>
       <c r="AC26" t="n">
         <v>2.74</v>
       </c>
-      <c r="AD26" t="s">
-        <v>273</v>
+      <c r="AD26" t="n">
+        <v>94349</v>
       </c>
       <c r="AE26" t="n">
         <v>1.21</v>
       </c>
-      <c r="AF26" t="s">
-        <v>274</v>
+      <c r="AF26" t="n">
+        <v>172446</v>
       </c>
       <c r="AG26" t="n">
         <v>2.22</v>
@@ -4726,100 +2833,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" t="s">
-        <v>276</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5895</v>
       </c>
       <c r="C27" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D27" t="s">
-        <v>277</v>
+      <c r="D27" t="n">
+        <v>2836</v>
       </c>
       <c r="E27" t="n">
         <v>0.03</v>
       </c>
-      <c r="F27" t="s">
-        <v>278</v>
+      <c r="F27" t="n">
+        <v>2118</v>
       </c>
       <c r="G27" t="n">
         <v>0.02</v>
       </c>
-      <c r="H27" t="s">
-        <v>279</v>
+      <c r="H27" t="n">
+        <v>1956</v>
       </c>
       <c r="I27" t="n">
         <v>0.02</v>
       </c>
-      <c r="J27" t="s">
-        <v>280</v>
+      <c r="J27" t="n">
+        <v>5392</v>
       </c>
       <c r="K27" t="n">
         <v>0.06</v>
       </c>
-      <c r="L27" t="s">
-        <v>281</v>
+      <c r="L27" t="n">
+        <v>9574</v>
       </c>
       <c r="M27" t="n">
         <v>0.11</v>
       </c>
-      <c r="N27" t="s">
-        <v>282</v>
+      <c r="N27" t="n">
+        <v>4857</v>
       </c>
       <c r="O27" t="n">
         <v>0.06</v>
       </c>
-      <c r="P27" t="s">
-        <v>283</v>
+      <c r="P27" t="n">
+        <v>6742</v>
       </c>
       <c r="Q27" t="n">
         <v>0.08</v>
       </c>
-      <c r="R27" t="s">
-        <v>284</v>
+      <c r="R27" t="n">
+        <v>5188</v>
       </c>
       <c r="S27" t="n">
         <v>0.06</v>
       </c>
-      <c r="T27" t="s">
-        <v>285</v>
+      <c r="T27" t="n">
+        <v>3042</v>
       </c>
       <c r="U27" t="n">
         <v>0.04</v>
       </c>
-      <c r="V27" t="s">
-        <v>286</v>
+      <c r="V27" t="n">
+        <v>6518</v>
       </c>
       <c r="W27" t="n">
         <v>0.08</v>
       </c>
-      <c r="X27" t="s">
-        <v>287</v>
+      <c r="X27" t="n">
+        <v>10012</v>
       </c>
       <c r="Y27" t="n">
         <v>0.13</v>
       </c>
-      <c r="Z27" t="s">
-        <v>288</v>
+      <c r="Z27" t="n">
+        <v>11141</v>
       </c>
       <c r="AA27" t="n">
         <v>0.14</v>
       </c>
-      <c r="AB27" t="s">
-        <v>289</v>
+      <c r="AB27" t="n">
+        <v>1213</v>
       </c>
       <c r="AC27" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD27" t="s">
-        <v>290</v>
+      <c r="AD27" t="n">
+        <v>77488</v>
       </c>
       <c r="AE27" t="n">
         <v>0.99</v>
       </c>
-      <c r="AF27" t="s">
-        <v>291</v>
+      <c r="AF27" t="n">
+        <v>90433</v>
       </c>
       <c r="AG27" t="n">
         <v>1.17</v>
@@ -4827,100 +2934,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B28" t="s">
-        <v>293</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>99682</v>
       </c>
       <c r="C28" t="n">
         <v>1.16</v>
       </c>
-      <c r="D28" t="s">
-        <v>294</v>
+      <c r="D28" t="n">
+        <v>128441</v>
       </c>
       <c r="E28" t="n">
         <v>1.47</v>
       </c>
-      <c r="F28" t="s">
-        <v>295</v>
+      <c r="F28" t="n">
+        <v>123602</v>
       </c>
       <c r="G28" t="n">
         <v>1.42</v>
       </c>
-      <c r="H28" t="s">
-        <v>296</v>
+      <c r="H28" t="n">
+        <v>118529</v>
       </c>
       <c r="I28" t="n">
         <v>1.38</v>
       </c>
-      <c r="J28" t="s">
-        <v>297</v>
+      <c r="J28" t="n">
+        <v>118650</v>
       </c>
       <c r="K28" t="n">
         <v>1.4</v>
       </c>
-      <c r="L28" t="s">
-        <v>298</v>
+      <c r="L28" t="n">
+        <v>118550</v>
       </c>
       <c r="M28" t="n">
         <v>1.39</v>
       </c>
-      <c r="N28" t="s">
-        <v>299</v>
+      <c r="N28" t="n">
+        <v>118683</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
       </c>
-      <c r="P28" t="s">
-        <v>300</v>
+      <c r="P28" t="n">
+        <v>108683</v>
       </c>
       <c r="Q28" t="n">
         <v>1.3</v>
       </c>
-      <c r="R28" t="s">
-        <v>301</v>
+      <c r="R28" t="n">
+        <v>108776</v>
       </c>
       <c r="S28" t="n">
         <v>1.33</v>
       </c>
-      <c r="T28" t="s">
-        <v>302</v>
+      <c r="T28" t="n">
+        <v>104911</v>
       </c>
       <c r="U28" t="n">
         <v>1.26</v>
       </c>
-      <c r="V28" t="s">
-        <v>50</v>
+      <c r="V28" t="n">
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
-      <c r="X28" t="s">
-        <v>303</v>
+      <c r="X28" t="n">
+        <v>49950</v>
       </c>
       <c r="Y28" t="n">
         <v>0.64</v>
       </c>
-      <c r="Z28" t="s">
-        <v>304</v>
+      <c r="Z28" t="n">
+        <v>49875</v>
       </c>
       <c r="AA28" t="n">
         <v>0.64</v>
       </c>
-      <c r="AB28" t="s">
-        <v>305</v>
+      <c r="AB28" t="n">
+        <v>149836</v>
       </c>
       <c r="AC28" t="n">
         <v>1.94</v>
       </c>
-      <c r="AD28" t="s">
-        <v>306</v>
+      <c r="AD28" t="n">
+        <v>229809</v>
       </c>
       <c r="AE28" t="n">
         <v>2.95</v>
       </c>
-      <c r="AF28" t="s">
-        <v>307</v>
+      <c r="AF28" t="n">
+        <v>229443</v>
       </c>
       <c r="AG28" t="n">
         <v>2.96</v>
@@ -4928,100 +3035,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B29" t="s">
-        <v>309</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>233052</v>
       </c>
       <c r="C29" t="n">
         <v>2.72</v>
       </c>
-      <c r="D29" t="s">
-        <v>310</v>
+      <c r="D29" t="n">
+        <v>260867</v>
       </c>
       <c r="E29" t="n">
         <v>2.99</v>
       </c>
-      <c r="F29" t="s">
-        <v>311</v>
+      <c r="F29" t="n">
+        <v>257462</v>
       </c>
       <c r="G29" t="n">
         <v>2.95</v>
       </c>
-      <c r="H29" t="s">
-        <v>312</v>
+      <c r="H29" t="n">
+        <v>327651</v>
       </c>
       <c r="I29" t="n">
         <v>3.82</v>
       </c>
-      <c r="J29" t="s">
-        <v>313</v>
+      <c r="J29" t="n">
+        <v>232479</v>
       </c>
       <c r="K29" t="n">
         <v>2.75</v>
       </c>
-      <c r="L29" t="s">
-        <v>314</v>
+      <c r="L29" t="n">
+        <v>318519</v>
       </c>
       <c r="M29" t="n">
         <v>3.74</v>
       </c>
-      <c r="N29" t="s">
-        <v>315</v>
+      <c r="N29" t="n">
+        <v>264838</v>
       </c>
       <c r="O29" t="n">
         <v>3.15</v>
       </c>
-      <c r="P29" t="s">
-        <v>316</v>
+      <c r="P29" t="n">
+        <v>313962</v>
       </c>
       <c r="Q29" t="n">
         <v>3.75</v>
       </c>
-      <c r="R29" t="s">
-        <v>317</v>
+      <c r="R29" t="n">
+        <v>235739</v>
       </c>
       <c r="S29" t="n">
         <v>2.87</v>
       </c>
-      <c r="T29" t="s">
-        <v>318</v>
+      <c r="T29" t="n">
+        <v>197836</v>
       </c>
       <c r="U29" t="n">
         <v>2.37</v>
       </c>
-      <c r="V29" t="s">
-        <v>319</v>
+      <c r="V29" t="n">
+        <v>236553</v>
       </c>
       <c r="W29" t="n">
         <v>2.95</v>
       </c>
-      <c r="X29" t="s">
-        <v>320</v>
+      <c r="X29" t="n">
+        <v>190379</v>
       </c>
       <c r="Y29" t="n">
         <v>2.42</v>
       </c>
-      <c r="Z29" t="s">
-        <v>321</v>
+      <c r="Z29" t="n">
+        <v>155564</v>
       </c>
       <c r="AA29" t="n">
         <v>2.01</v>
       </c>
-      <c r="AB29" t="s">
-        <v>322</v>
+      <c r="AB29" t="n">
+        <v>233148</v>
       </c>
       <c r="AC29" t="n">
         <v>3.02</v>
       </c>
-      <c r="AD29" t="s">
-        <v>323</v>
+      <c r="AD29" t="n">
+        <v>225516</v>
       </c>
       <c r="AE29" t="n">
         <v>2.89</v>
       </c>
-      <c r="AF29" t="s">
-        <v>324</v>
+      <c r="AF29" t="n">
+        <v>155842</v>
       </c>
       <c r="AG29" t="n">
         <v>2.01</v>
@@ -5029,100 +3136,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B30" t="s">
-        <v>326</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>327</v>
+      <c r="D30" t="n">
+        <v>1629</v>
       </c>
       <c r="E30" t="n">
         <v>0.02</v>
       </c>
-      <c r="F30" t="s">
-        <v>328</v>
+      <c r="F30" t="n">
+        <v>1784</v>
       </c>
       <c r="G30" t="n">
         <v>0.02</v>
       </c>
-      <c r="H30" t="s">
-        <v>329</v>
+      <c r="H30" t="n">
+        <v>156</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>330</v>
+      <c r="J30" t="n">
+        <v>1145</v>
       </c>
       <c r="K30" t="n">
         <v>0.01</v>
       </c>
-      <c r="L30" t="s">
-        <v>331</v>
+      <c r="L30" t="n">
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="s">
-        <v>332</v>
+      <c r="N30" t="n">
+        <v>4447</v>
       </c>
       <c r="O30" t="n">
         <v>0.05</v>
       </c>
-      <c r="P30" t="s">
-        <v>333</v>
+      <c r="P30" t="n">
+        <v>51</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
-        <v>334</v>
+      <c r="R30" t="n">
+        <v>1365</v>
       </c>
       <c r="S30" t="n">
         <v>0.02</v>
       </c>
-      <c r="T30" t="s">
-        <v>335</v>
+      <c r="T30" t="n">
+        <v>5463</v>
       </c>
       <c r="U30" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="V30" t="s">
-        <v>50</v>
+      <c r="V30" t="n">
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
-        <v>50</v>
+      <c r="X30" t="n">
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
-      <c r="Z30" t="s">
-        <v>336</v>
+      <c r="Z30" t="n">
+        <v>61</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
-      <c r="AB30" t="s">
-        <v>337</v>
+      <c r="AB30" t="n">
+        <v>1050</v>
       </c>
       <c r="AC30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD30" t="s">
-        <v>338</v>
+      <c r="AD30" t="n">
+        <v>44756</v>
       </c>
       <c r="AE30" t="n">
         <v>0.57</v>
       </c>
-      <c r="AF30" t="s">
-        <v>339</v>
+      <c r="AF30" t="n">
+        <v>91186</v>
       </c>
       <c r="AG30" t="n">
         <v>1.18</v>
@@ -5130,100 +3237,100 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" t="s">
-        <v>341</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>515258</v>
       </c>
       <c r="C31" t="n">
         <v>6.01</v>
       </c>
-      <c r="D31" t="s">
-        <v>342</v>
+      <c r="D31" t="n">
+        <v>530217</v>
       </c>
       <c r="E31" t="n">
         <v>6.07</v>
       </c>
-      <c r="F31" t="s">
-        <v>343</v>
+      <c r="F31" t="n">
+        <v>519764</v>
       </c>
       <c r="G31" t="n">
         <v>5.96</v>
       </c>
-      <c r="H31" t="s">
-        <v>344</v>
+      <c r="H31" t="n">
+        <v>544148</v>
       </c>
       <c r="I31" t="n">
         <v>6.34</v>
       </c>
-      <c r="J31" t="s">
-        <v>345</v>
+      <c r="J31" t="n">
+        <v>501064</v>
       </c>
       <c r="K31" t="n">
         <v>5.93</v>
       </c>
-      <c r="L31" t="s">
-        <v>346</v>
+      <c r="L31" t="n">
+        <v>551236</v>
       </c>
       <c r="M31" t="n">
         <v>6.48</v>
       </c>
-      <c r="N31" t="s">
-        <v>347</v>
+      <c r="N31" t="n">
+        <v>551457</v>
       </c>
       <c r="O31" t="n">
         <v>6.55</v>
       </c>
-      <c r="P31" t="s">
-        <v>348</v>
+      <c r="P31" t="n">
+        <v>557441</v>
       </c>
       <c r="Q31" t="n">
         <v>6.67</v>
       </c>
-      <c r="R31" t="s">
-        <v>349</v>
+      <c r="R31" t="n">
+        <v>552760</v>
       </c>
       <c r="S31" t="n">
         <v>6.73</v>
       </c>
-      <c r="T31" t="s">
-        <v>350</v>
+      <c r="T31" t="n">
+        <v>528692</v>
       </c>
       <c r="U31" t="n">
         <v>6.34</v>
       </c>
-      <c r="V31" t="s">
-        <v>351</v>
+      <c r="V31" t="n">
+        <v>423303</v>
       </c>
       <c r="W31" t="n">
         <v>5.27</v>
       </c>
-      <c r="X31" t="s">
-        <v>352</v>
+      <c r="X31" t="n">
+        <v>460296</v>
       </c>
       <c r="Y31" t="n">
         <v>5.86</v>
       </c>
-      <c r="Z31" t="s">
-        <v>353</v>
+      <c r="Z31" t="n">
+        <v>373753</v>
       </c>
       <c r="AA31" t="n">
         <v>4.83</v>
       </c>
-      <c r="AB31" t="s">
-        <v>354</v>
+      <c r="AB31" t="n">
+        <v>321603</v>
       </c>
       <c r="AC31" t="n">
         <v>4.16</v>
       </c>
-      <c r="AD31" t="s">
-        <v>355</v>
+      <c r="AD31" t="n">
+        <v>361232</v>
       </c>
       <c r="AE31" t="n">
         <v>4.63</v>
       </c>
-      <c r="AF31" t="s">
-        <v>356</v>
+      <c r="AF31" t="n">
+        <v>303758</v>
       </c>
       <c r="AG31" t="n">
         <v>3.92</v>
@@ -5231,100 +3338,100 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>50</v>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>358</v>
+      <c r="F32" t="n">
+        <v>38</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>359</v>
+      <c r="H32" t="n">
+        <v>3802</v>
       </c>
       <c r="I32" t="n">
         <v>0.04</v>
       </c>
-      <c r="J32" t="s">
-        <v>360</v>
+      <c r="J32" t="n">
+        <v>4186</v>
       </c>
       <c r="K32" t="n">
         <v>0.05</v>
       </c>
-      <c r="L32" t="s">
-        <v>361</v>
+      <c r="L32" t="n">
+        <v>390</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>362</v>
+      <c r="N32" t="n">
+        <v>579</v>
       </c>
       <c r="O32" t="n">
         <v>0.01</v>
       </c>
-      <c r="P32" t="s">
-        <v>363</v>
+      <c r="P32" t="n">
+        <v>11</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>364</v>
+      <c r="R32" t="n">
+        <v>658</v>
       </c>
       <c r="S32" t="n">
         <v>0.01</v>
       </c>
-      <c r="T32" t="s">
-        <v>365</v>
+      <c r="T32" t="n">
+        <v>493</v>
       </c>
       <c r="U32" t="n">
         <v>0.01</v>
       </c>
-      <c r="V32" t="s">
-        <v>50</v>
+      <c r="V32" t="n">
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
-      <c r="X32" t="s">
-        <v>50</v>
+      <c r="X32" t="n">
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" t="s">
-        <v>366</v>
+      <c r="Z32" t="n">
+        <v>324</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="s">
-        <v>50</v>
+      <c r="AB32" t="n">
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" t="s">
-        <v>367</v>
+      <c r="AD32" t="n">
+        <v>504</v>
       </c>
       <c r="AE32" t="n">
         <v>0.01</v>
       </c>
-      <c r="AF32" t="s">
-        <v>368</v>
+      <c r="AF32" t="n">
+        <v>23360</v>
       </c>
       <c r="AG32" t="n">
         <v>0.3</v>
@@ -5332,100 +3439,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B33" t="s">
-        <v>370</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>530560</v>
       </c>
       <c r="C33" t="n">
         <v>6.19</v>
       </c>
-      <c r="D33" t="s">
-        <v>371</v>
+      <c r="D33" t="n">
+        <v>526389</v>
       </c>
       <c r="E33" t="n">
         <v>6.02</v>
       </c>
-      <c r="F33" t="s">
-        <v>372</v>
+      <c r="F33" t="n">
+        <v>507013</v>
       </c>
       <c r="G33" t="n">
         <v>5.82</v>
       </c>
-      <c r="H33" t="s">
-        <v>373</v>
+      <c r="H33" t="n">
+        <v>587846</v>
       </c>
       <c r="I33" t="n">
         <v>6.85</v>
       </c>
-      <c r="J33" t="s">
-        <v>374</v>
+      <c r="J33" t="n">
+        <v>524463</v>
       </c>
       <c r="K33" t="n">
         <v>6.21</v>
       </c>
-      <c r="L33" t="s">
-        <v>375</v>
+      <c r="L33" t="n">
+        <v>519597</v>
       </c>
       <c r="M33" t="n">
         <v>6.11</v>
       </c>
-      <c r="N33" t="s">
-        <v>376</v>
+      <c r="N33" t="n">
+        <v>500774</v>
       </c>
       <c r="O33" t="n">
         <v>5.95</v>
       </c>
-      <c r="P33" t="s">
-        <v>377</v>
+      <c r="P33" t="n">
+        <v>584884</v>
       </c>
       <c r="Q33" t="n">
         <v>6.99</v>
       </c>
-      <c r="R33" t="s">
-        <v>378</v>
+      <c r="R33" t="n">
+        <v>516489</v>
       </c>
       <c r="S33" t="n">
         <v>6.29</v>
       </c>
-      <c r="T33" t="s">
-        <v>379</v>
+      <c r="T33" t="n">
+        <v>520631</v>
       </c>
       <c r="U33" t="n">
         <v>6.25</v>
       </c>
-      <c r="V33" t="s">
-        <v>380</v>
+      <c r="V33" t="n">
+        <v>456366</v>
       </c>
       <c r="W33" t="n">
         <v>5.69</v>
       </c>
-      <c r="X33" t="s">
-        <v>381</v>
+      <c r="X33" t="n">
+        <v>442341</v>
       </c>
       <c r="Y33" t="n">
         <v>5.63</v>
       </c>
-      <c r="Z33" t="s">
-        <v>382</v>
+      <c r="Z33" t="n">
+        <v>359495</v>
       </c>
       <c r="AA33" t="n">
         <v>4.64</v>
       </c>
-      <c r="AB33" t="s">
-        <v>383</v>
+      <c r="AB33" t="n">
+        <v>512860</v>
       </c>
       <c r="AC33" t="n">
         <v>6.63</v>
       </c>
-      <c r="AD33" t="s">
-        <v>384</v>
+      <c r="AD33" t="n">
+        <v>415615</v>
       </c>
       <c r="AE33" t="n">
         <v>5.33</v>
       </c>
-      <c r="AF33" t="s">
-        <v>385</v>
+      <c r="AF33" t="n">
+        <v>440532</v>
       </c>
       <c r="AG33" t="n">
         <v>5.68</v>
@@ -5433,100 +3540,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B34" t="s">
-        <v>387</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
-        <v>388</v>
+      <c r="D34" t="n">
+        <v>153</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>389</v>
+      <c r="F34" t="n">
+        <v>114</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
-        <v>390</v>
+      <c r="H34" t="n">
+        <v>100</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>391</v>
+      <c r="J34" t="n">
+        <v>93</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="s">
-        <v>392</v>
+      <c r="L34" t="n">
+        <v>9</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
-        <v>393</v>
+      <c r="N34" t="n">
+        <v>3343</v>
       </c>
       <c r="O34" t="n">
         <v>0.04</v>
       </c>
-      <c r="P34" t="s">
-        <v>394</v>
+      <c r="P34" t="n">
+        <v>1903</v>
       </c>
       <c r="Q34" t="n">
         <v>0.02</v>
       </c>
-      <c r="R34" t="s">
-        <v>395</v>
+      <c r="R34" t="n">
+        <v>199</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="T34" t="s">
-        <v>50</v>
+      <c r="T34" t="n">
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="s">
-        <v>50</v>
+      <c r="V34" t="n">
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
-      <c r="X34" t="s">
-        <v>395</v>
+      <c r="X34" t="n">
+        <v>199</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
-      <c r="Z34" t="s">
-        <v>50</v>
+      <c r="Z34" t="n">
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
-      <c r="AB34" t="s">
-        <v>50</v>
+      <c r="AB34" t="n">
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
-      <c r="AD34" t="s">
-        <v>396</v>
+      <c r="AD34" t="n">
+        <v>306</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
-      <c r="AF34" t="s">
-        <v>397</v>
+      <c r="AF34" t="n">
+        <v>12050</v>
       </c>
       <c r="AG34" t="n">
         <v>0.16</v>
@@ -5534,16 +3641,16 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
-        <v>50</v>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -5552,14 +3659,14 @@
       <c r="G35" t="s"/>
       <c r="H35" t="s"/>
       <c r="I35" t="s"/>
-      <c r="J35" t="s">
-        <v>50</v>
+      <c r="J35" t="n">
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="s">
-        <v>50</v>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -5587,16 +3694,16 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>50</v>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -5605,14 +3712,14 @@
       <c r="G36" t="s"/>
       <c r="H36" t="s"/>
       <c r="I36" t="s"/>
-      <c r="J36" t="s">
-        <v>50</v>
+      <c r="J36" t="n">
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="s">
-        <v>50</v>
+      <c r="L36" t="n">
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -5640,16 +3747,16 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
-        <v>50</v>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -5658,14 +3765,14 @@
       <c r="G37" t="s"/>
       <c r="H37" t="s"/>
       <c r="I37" t="s"/>
-      <c r="J37" t="s">
-        <v>50</v>
+      <c r="J37" t="n">
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="s">
-        <v>50</v>
+      <c r="L37" t="n">
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -5693,16 +3800,16 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>50</v>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -5711,14 +3818,14 @@
       <c r="G38" t="s"/>
       <c r="H38" t="s"/>
       <c r="I38" t="s"/>
-      <c r="J38" t="s">
-        <v>50</v>
+      <c r="J38" t="n">
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="s">
-        <v>50</v>
+      <c r="L38" t="n">
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -5746,16 +3853,16 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
-        <v>50</v>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -5764,14 +3871,14 @@
       <c r="G39" t="s"/>
       <c r="H39" t="s"/>
       <c r="I39" t="s"/>
-      <c r="J39" t="s">
-        <v>50</v>
+      <c r="J39" t="n">
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="s">
-        <v>50</v>
+      <c r="L39" t="n">
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -5799,100 +3906,100 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B40" t="s">
-        <v>404</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4047380</v>
       </c>
       <c r="C40" t="n">
         <v>47.2</v>
       </c>
-      <c r="D40" t="s">
-        <v>404</v>
+      <c r="D40" t="n">
+        <v>4047380</v>
       </c>
       <c r="E40" t="n">
         <v>46.32</v>
       </c>
-      <c r="F40" t="s">
-        <v>404</v>
+      <c r="F40" t="n">
+        <v>4047380</v>
       </c>
       <c r="G40" t="n">
         <v>46.43</v>
       </c>
-      <c r="H40" t="s">
-        <v>404</v>
+      <c r="H40" t="n">
+        <v>4047380</v>
       </c>
       <c r="I40" t="n">
         <v>47.16</v>
       </c>
-      <c r="J40" t="s">
-        <v>404</v>
+      <c r="J40" t="n">
+        <v>4047380</v>
       </c>
       <c r="K40" t="n">
         <v>47.93</v>
       </c>
-      <c r="L40" t="s">
-        <v>404</v>
+      <c r="L40" t="n">
+        <v>4047380</v>
       </c>
       <c r="M40" t="n">
         <v>47.57</v>
       </c>
-      <c r="N40" t="s">
-        <v>404</v>
+      <c r="N40" t="n">
+        <v>4047380</v>
       </c>
       <c r="O40" t="n">
         <v>48.1</v>
       </c>
-      <c r="P40" t="s">
-        <v>404</v>
+      <c r="P40" t="n">
+        <v>4047380</v>
       </c>
       <c r="Q40" t="n">
         <v>48.39</v>
       </c>
-      <c r="R40" t="s">
-        <v>404</v>
+      <c r="R40" t="n">
+        <v>4047380</v>
       </c>
       <c r="S40" t="n">
         <v>49.31</v>
       </c>
-      <c r="T40" t="s">
-        <v>404</v>
+      <c r="T40" t="n">
+        <v>4047380</v>
       </c>
       <c r="U40" t="n">
         <v>48.56</v>
       </c>
-      <c r="V40" t="s">
-        <v>404</v>
+      <c r="V40" t="n">
+        <v>4047380</v>
       </c>
       <c r="W40" t="n">
         <v>50.43</v>
       </c>
-      <c r="X40" t="s">
-        <v>404</v>
+      <c r="X40" t="n">
+        <v>4047380</v>
       </c>
       <c r="Y40" t="n">
         <v>51.52</v>
       </c>
-      <c r="Z40" t="s">
-        <v>404</v>
+      <c r="Z40" t="n">
+        <v>4047380</v>
       </c>
       <c r="AA40" t="n">
         <v>52.28</v>
       </c>
-      <c r="AB40" t="s">
-        <v>404</v>
+      <c r="AB40" t="n">
+        <v>4047380</v>
       </c>
       <c r="AC40" t="n">
         <v>52.35</v>
       </c>
-      <c r="AD40" t="s">
-        <v>404</v>
+      <c r="AD40" t="n">
+        <v>4047380</v>
       </c>
       <c r="AE40" t="n">
         <v>51.88</v>
       </c>
-      <c r="AF40" t="s">
-        <v>404</v>
+      <c r="AF40" t="n">
+        <v>4047380</v>
       </c>
       <c r="AG40" t="n">
         <v>52.21</v>
@@ -5900,100 +4007,100 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B41" t="s">
-        <v>406</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>157389</v>
       </c>
       <c r="C41" t="n">
         <v>1.84</v>
       </c>
-      <c r="D41" t="s">
-        <v>407</v>
+      <c r="D41" t="n">
+        <v>195250</v>
       </c>
       <c r="E41" t="n">
         <v>2.23</v>
       </c>
-      <c r="F41" t="s">
-        <v>408</v>
+      <c r="F41" t="n">
+        <v>250552</v>
       </c>
       <c r="G41" t="n">
         <v>2.87</v>
       </c>
-      <c r="H41" t="s">
-        <v>409</v>
+      <c r="H41" t="n">
+        <v>263852</v>
       </c>
       <c r="I41" t="n">
         <v>3.07</v>
       </c>
-      <c r="J41" t="s">
-        <v>410</v>
+      <c r="J41" t="n">
+        <v>336867</v>
       </c>
       <c r="K41" t="n">
         <v>3.99</v>
       </c>
-      <c r="L41" t="s">
-        <v>411</v>
+      <c r="L41" t="n">
+        <v>288351</v>
       </c>
       <c r="M41" t="n">
         <v>3.39</v>
       </c>
-      <c r="N41" t="s">
-        <v>412</v>
+      <c r="N41" t="n">
+        <v>369729</v>
       </c>
       <c r="O41" t="n">
         <v>4.39</v>
       </c>
-      <c r="P41" t="s">
-        <v>413</v>
+      <c r="P41" t="n">
+        <v>445049</v>
       </c>
       <c r="Q41" t="n">
         <v>5.32</v>
       </c>
-      <c r="R41" t="s">
-        <v>414</v>
+      <c r="R41" t="n">
+        <v>601347</v>
       </c>
       <c r="S41" t="n">
         <v>7.33</v>
       </c>
-      <c r="T41" t="s">
-        <v>415</v>
+      <c r="T41" t="n">
+        <v>479800</v>
       </c>
       <c r="U41" t="n">
         <v>5.76</v>
       </c>
-      <c r="V41" t="s">
-        <v>416</v>
+      <c r="V41" t="n">
+        <v>571580</v>
       </c>
       <c r="W41" t="n">
         <v>7.12</v>
       </c>
-      <c r="X41" t="s">
-        <v>417</v>
+      <c r="X41" t="n">
+        <v>626211</v>
       </c>
       <c r="Y41" t="n">
         <v>7.97</v>
       </c>
-      <c r="Z41" t="s">
-        <v>418</v>
+      <c r="Z41" t="n">
+        <v>729603</v>
       </c>
       <c r="AA41" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB41" t="s">
-        <v>419</v>
+      <c r="AB41" t="n">
+        <v>430012</v>
       </c>
       <c r="AC41" t="n">
         <v>5.56</v>
       </c>
-      <c r="AD41" t="s">
-        <v>420</v>
+      <c r="AD41" t="n">
+        <v>509025</v>
       </c>
       <c r="AE41" t="n">
         <v>6.53</v>
       </c>
-      <c r="AF41" t="s">
-        <v>421</v>
+      <c r="AF41" t="n">
+        <v>547996</v>
       </c>
       <c r="AG41" t="n">
         <v>7.07</v>
@@ -6001,7 +4108,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
@@ -6019,50 +4126,50 @@
       <c r="O42" t="s"/>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s">
-        <v>423</v>
+      <c r="R42" t="n">
+        <v>52785</v>
       </c>
       <c r="S42" t="n">
         <v>0.64</v>
       </c>
-      <c r="T42" t="s">
-        <v>424</v>
+      <c r="T42" t="n">
+        <v>96069</v>
       </c>
       <c r="U42" t="n">
         <v>1.15</v>
       </c>
-      <c r="V42" t="s">
-        <v>425</v>
+      <c r="V42" t="n">
+        <v>94630</v>
       </c>
       <c r="W42" t="n">
         <v>1.18</v>
       </c>
-      <c r="X42" t="s">
-        <v>426</v>
+      <c r="X42" t="n">
+        <v>136076</v>
       </c>
       <c r="Y42" t="n">
         <v>1.73</v>
       </c>
-      <c r="Z42" t="s">
-        <v>427</v>
+      <c r="Z42" t="n">
+        <v>137399</v>
       </c>
       <c r="AA42" t="n">
         <v>1.77</v>
       </c>
-      <c r="AB42" t="s">
-        <v>428</v>
+      <c r="AB42" t="n">
+        <v>12477</v>
       </c>
       <c r="AC42" t="n">
         <v>0.16</v>
       </c>
-      <c r="AD42" t="s">
-        <v>429</v>
+      <c r="AD42" t="n">
+        <v>292</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
       </c>
-      <c r="AF42" t="s">
-        <v>430</v>
+      <c r="AF42" t="n">
+        <v>4128</v>
       </c>
       <c r="AG42" t="n">
         <v>0.05</v>
@@ -6070,7 +4177,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -6088,50 +4195,50 @@
       <c r="O43" t="s"/>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s">
-        <v>432</v>
+      <c r="R43" t="n">
+        <v>49</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="s">
-        <v>433</v>
+      <c r="T43" t="n">
+        <v>53</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="s">
-        <v>433</v>
+      <c r="V43" t="n">
+        <v>53</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
-      <c r="X43" t="s">
-        <v>434</v>
+      <c r="X43" t="n">
+        <v>54</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
       </c>
-      <c r="Z43" t="s">
-        <v>435</v>
+      <c r="Z43" t="n">
+        <v>14</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
-      <c r="AB43" t="s">
-        <v>436</v>
+      <c r="AB43" t="n">
+        <v>29</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
       </c>
-      <c r="AD43" t="s">
-        <v>437</v>
+      <c r="AD43" t="n">
+        <v>34081</v>
       </c>
       <c r="AE43" t="n">
         <v>0.44</v>
       </c>
-      <c r="AF43" t="s">
-        <v>438</v>
+      <c r="AF43" t="n">
+        <v>15663</v>
       </c>
       <c r="AG43" t="n">
         <v>0.2</v>
@@ -6139,100 +4246,100 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44" t="s">
-        <v>440</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4283174</v>
       </c>
       <c r="C44" t="n">
         <v>49.95</v>
       </c>
-      <c r="D44" t="s">
-        <v>441</v>
+      <c r="D44" t="n">
+        <v>4346426</v>
       </c>
       <c r="E44" t="n">
         <v>49.74</v>
       </c>
-      <c r="F44" t="s">
-        <v>442</v>
+      <c r="F44" t="n">
+        <v>4399720</v>
       </c>
       <c r="G44" t="n">
         <v>50.47</v>
       </c>
-      <c r="H44" t="s">
-        <v>443</v>
+      <c r="H44" t="n">
+        <v>4403404</v>
       </c>
       <c r="I44" t="n">
         <v>51.3</v>
       </c>
-      <c r="J44" t="s">
-        <v>444</v>
+      <c r="J44" t="n">
+        <v>4484045</v>
       </c>
       <c r="K44" t="n">
         <v>53.1</v>
       </c>
-      <c r="L44" t="s">
-        <v>445</v>
+      <c r="L44" t="n">
+        <v>4443999</v>
       </c>
       <c r="M44" t="n">
         <v>52.23</v>
       </c>
-      <c r="N44" t="s">
-        <v>446</v>
+      <c r="N44" t="n">
+        <v>4508251</v>
       </c>
       <c r="O44" t="n">
         <v>53.58</v>
       </c>
-      <c r="P44" t="s">
-        <v>447</v>
+      <c r="P44" t="n">
+        <v>4615114</v>
       </c>
       <c r="Q44" t="n">
         <v>55.18</v>
       </c>
-      <c r="R44" t="s">
-        <v>448</v>
+      <c r="R44" t="n">
+        <v>4771744</v>
       </c>
       <c r="S44" t="n">
         <v>58.13</v>
       </c>
-      <c r="T44" t="s">
-        <v>449</v>
+      <c r="T44" t="n">
+        <v>4669070</v>
       </c>
       <c r="U44" t="n">
         <v>56.02</v>
       </c>
-      <c r="V44" t="s">
-        <v>450</v>
+      <c r="V44" t="n">
+        <v>4774614</v>
       </c>
       <c r="W44" t="n">
         <v>59.49</v>
       </c>
-      <c r="X44" t="s">
-        <v>451</v>
+      <c r="X44" t="n">
+        <v>4845664</v>
       </c>
       <c r="Y44" t="n">
         <v>61.68</v>
       </c>
-      <c r="Z44" t="s">
-        <v>452</v>
+      <c r="Z44" t="n">
+        <v>4945380</v>
       </c>
       <c r="AA44" t="n">
         <v>63.88</v>
       </c>
-      <c r="AB44" t="s">
-        <v>453</v>
+      <c r="AB44" t="n">
+        <v>4696296</v>
       </c>
       <c r="AC44" t="n">
         <v>60.75</v>
       </c>
-      <c r="AD44" t="s">
-        <v>454</v>
+      <c r="AD44" t="n">
+        <v>4771928</v>
       </c>
       <c r="AE44" t="n">
         <v>61.17</v>
       </c>
-      <c r="AF44" t="s">
-        <v>455</v>
+      <c r="AF44" t="n">
+        <v>4801836</v>
       </c>
       <c r="AG44" t="n">
         <v>61.94</v>
@@ -6240,100 +4347,100 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B45" t="s">
-        <v>457</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4302438</v>
       </c>
       <c r="C45" t="n">
         <v>50.17</v>
       </c>
-      <c r="D45" t="s">
-        <v>458</v>
+      <c r="D45" t="n">
+        <v>4324858</v>
       </c>
       <c r="E45" t="n">
         <v>49.5</v>
       </c>
-      <c r="F45" t="s">
-        <v>459</v>
+      <c r="F45" t="n">
+        <v>4380159</v>
       </c>
       <c r="G45" t="n">
         <v>50.25</v>
       </c>
-      <c r="H45" t="s">
-        <v>460</v>
+      <c r="H45" t="n">
+        <v>4389498</v>
       </c>
       <c r="I45" t="n">
         <v>51.14</v>
       </c>
-      <c r="J45" t="s">
-        <v>461</v>
+      <c r="J45" t="n">
+        <v>4472379</v>
       </c>
       <c r="K45" t="n">
         <v>52.96</v>
       </c>
-      <c r="L45" t="s">
-        <v>462</v>
+      <c r="L45" t="n">
+        <v>4433167</v>
       </c>
       <c r="M45" t="n">
         <v>52.11</v>
       </c>
-      <c r="N45" t="s">
-        <v>463</v>
+      <c r="N45" t="n">
+        <v>4502149</v>
       </c>
       <c r="O45" t="n">
         <v>53.51</v>
       </c>
-      <c r="P45" t="s">
-        <v>464</v>
+      <c r="P45" t="n">
+        <v>4584622</v>
       </c>
       <c r="Q45" t="n">
         <v>54.82</v>
       </c>
-      <c r="R45" t="s">
-        <v>465</v>
+      <c r="R45" t="n">
+        <v>4742368</v>
       </c>
       <c r="S45" t="n">
         <v>57.78</v>
       </c>
-      <c r="T45" t="s">
-        <v>466</v>
+      <c r="T45" t="n">
+        <v>4646217</v>
       </c>
       <c r="U45" t="n">
         <v>55.75</v>
       </c>
-      <c r="V45" t="s">
-        <v>467</v>
+      <c r="V45" t="n">
+        <v>4741179</v>
       </c>
       <c r="W45" t="n">
         <v>59.08</v>
       </c>
-      <c r="X45" t="s">
-        <v>468</v>
+      <c r="X45" t="n">
+        <v>4811850</v>
       </c>
       <c r="Y45" t="n">
         <v>61.25</v>
       </c>
-      <c r="Z45" t="s">
-        <v>469</v>
+      <c r="Z45" t="n">
+        <v>4910587</v>
       </c>
       <c r="AA45" t="n">
         <v>63.44</v>
       </c>
-      <c r="AB45" t="s">
-        <v>470</v>
+      <c r="AB45" t="n">
+        <v>4665065</v>
       </c>
       <c r="AC45" t="n">
         <v>60.34</v>
       </c>
-      <c r="AD45" t="s">
-        <v>471</v>
+      <c r="AD45" t="n">
+        <v>4741838</v>
       </c>
       <c r="AE45" t="n">
         <v>60.78</v>
       </c>
-      <c r="AF45" t="s">
-        <v>472</v>
+      <c r="AF45" t="n">
+        <v>4771695</v>
       </c>
       <c r="AG45" t="n">
         <v>61.55</v>
@@ -6341,169 +4448,169 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
       <c r="C46" t="s"/>
-      <c r="D46" t="s">
-        <v>50</v>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
       <c r="E46" t="s"/>
-      <c r="F46" t="s">
-        <v>50</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>50</v>
+      <c r="H46" t="n">
+        <v>0</v>
       </c>
       <c r="I46" t="s"/>
-      <c r="J46" t="s">
-        <v>50</v>
+      <c r="J46" t="n">
+        <v>0</v>
       </c>
       <c r="K46" t="s"/>
-      <c r="L46" t="s">
-        <v>50</v>
+      <c r="L46" t="n">
+        <v>0</v>
       </c>
       <c r="M46" t="s"/>
-      <c r="N46" t="s">
-        <v>50</v>
+      <c r="N46" t="n">
+        <v>0</v>
       </c>
       <c r="O46" t="s"/>
-      <c r="P46" t="s">
-        <v>50</v>
+      <c r="P46" t="n">
+        <v>0</v>
       </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s">
-        <v>50</v>
+      <c r="R46" t="n">
+        <v>0</v>
       </c>
       <c r="S46" t="s"/>
-      <c r="T46" t="s">
-        <v>50</v>
+      <c r="T46" t="n">
+        <v>0</v>
       </c>
       <c r="U46" t="s"/>
-      <c r="V46" t="s">
-        <v>50</v>
+      <c r="V46" t="n">
+        <v>0</v>
       </c>
       <c r="W46" t="s"/>
-      <c r="X46" t="s">
-        <v>50</v>
+      <c r="X46" t="n">
+        <v>0</v>
       </c>
       <c r="Y46" t="s"/>
-      <c r="Z46" t="s">
-        <v>50</v>
+      <c r="Z46" t="n">
+        <v>0</v>
       </c>
       <c r="AA46" t="s"/>
-      <c r="AB46" t="s">
-        <v>50</v>
+      <c r="AB46" t="n">
+        <v>0</v>
       </c>
       <c r="AC46" t="s"/>
-      <c r="AD46" t="s">
-        <v>50</v>
+      <c r="AD46" t="n">
+        <v>0</v>
       </c>
       <c r="AE46" t="s"/>
-      <c r="AF46" t="s">
-        <v>50</v>
+      <c r="AF46" t="n">
+        <v>0</v>
       </c>
       <c r="AG46" t="s"/>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B47" t="s">
-        <v>475</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>28454</v>
       </c>
       <c r="C47" t="n">
         <v>0.33</v>
       </c>
-      <c r="D47" t="s">
-        <v>476</v>
+      <c r="D47" t="n">
+        <v>31862</v>
       </c>
       <c r="E47" t="n">
         <v>0.36</v>
       </c>
-      <c r="F47" t="s">
-        <v>476</v>
+      <c r="F47" t="n">
+        <v>31862</v>
       </c>
       <c r="G47" t="n">
         <v>0.37</v>
       </c>
-      <c r="H47" t="s">
-        <v>476</v>
+      <c r="H47" t="n">
+        <v>31862</v>
       </c>
       <c r="I47" t="n">
         <v>0.37</v>
       </c>
-      <c r="J47" t="s">
-        <v>476</v>
+      <c r="J47" t="n">
+        <v>31862</v>
       </c>
       <c r="K47" t="n">
         <v>0.38</v>
       </c>
-      <c r="L47" t="s">
-        <v>477</v>
+      <c r="L47" t="n">
+        <v>49806</v>
       </c>
       <c r="M47" t="n">
         <v>0.59</v>
       </c>
-      <c r="N47" t="s">
-        <v>477</v>
+      <c r="N47" t="n">
+        <v>49806</v>
       </c>
       <c r="O47" t="n">
         <v>0.59</v>
       </c>
-      <c r="P47" t="s">
-        <v>477</v>
+      <c r="P47" t="n">
+        <v>49806</v>
       </c>
       <c r="Q47" t="n">
         <v>0.6</v>
       </c>
-      <c r="R47" t="s">
-        <v>477</v>
+      <c r="R47" t="n">
+        <v>49806</v>
       </c>
       <c r="S47" t="n">
         <v>0.61</v>
       </c>
-      <c r="T47" t="s">
-        <v>478</v>
+      <c r="T47" t="n">
+        <v>87760</v>
       </c>
       <c r="U47" t="n">
         <v>1.05</v>
       </c>
-      <c r="V47" t="s">
-        <v>478</v>
+      <c r="V47" t="n">
+        <v>87760</v>
       </c>
       <c r="W47" t="n">
         <v>1.09</v>
       </c>
-      <c r="X47" t="s">
-        <v>478</v>
+      <c r="X47" t="n">
+        <v>87760</v>
       </c>
       <c r="Y47" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z47" t="s">
-        <v>478</v>
+      <c r="Z47" t="n">
+        <v>87760</v>
       </c>
       <c r="AA47" t="n">
         <v>1.13</v>
       </c>
-      <c r="AB47" t="s">
-        <v>479</v>
+      <c r="AB47" t="n">
+        <v>134776</v>
       </c>
       <c r="AC47" t="n">
         <v>1.74</v>
       </c>
-      <c r="AD47" t="s">
-        <v>479</v>
+      <c r="AD47" t="n">
+        <v>134776</v>
       </c>
       <c r="AE47" t="n">
         <v>1.73</v>
       </c>
-      <c r="AF47" t="s">
-        <v>479</v>
+      <c r="AF47" t="n">
+        <v>134776</v>
       </c>
       <c r="AG47" t="n">
         <v>1.74</v>
@@ -6511,100 +4618,100 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B48" t="s">
-        <v>481</v>
+        <v>78</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2245153</v>
       </c>
       <c r="C48" t="n">
         <v>26.18</v>
       </c>
-      <c r="D48" t="s">
-        <v>482</v>
+      <c r="D48" t="n">
+        <v>2282837</v>
       </c>
       <c r="E48" t="n">
         <v>26.13</v>
       </c>
-      <c r="F48" t="s">
-        <v>483</v>
+      <c r="F48" t="n">
+        <v>2290430</v>
       </c>
       <c r="G48" t="n">
         <v>26.28</v>
       </c>
-      <c r="H48" t="s">
-        <v>484</v>
+      <c r="H48" t="n">
+        <v>2236177</v>
       </c>
       <c r="I48" t="n">
         <v>26.05</v>
       </c>
-      <c r="J48" t="s">
-        <v>485</v>
+      <c r="J48" t="n">
+        <v>2134938</v>
       </c>
       <c r="K48" t="n">
         <v>25.28</v>
       </c>
-      <c r="L48" t="s">
-        <v>486</v>
+      <c r="L48" t="n">
+        <v>2256891</v>
       </c>
       <c r="M48" t="n">
         <v>26.53</v>
       </c>
-      <c r="N48" t="s">
-        <v>487</v>
+      <c r="N48" t="n">
+        <v>2103436</v>
       </c>
       <c r="O48" t="n">
         <v>25</v>
       </c>
-      <c r="P48" t="s">
-        <v>488</v>
+      <c r="P48" t="n">
+        <v>2333817</v>
       </c>
       <c r="Q48" t="n">
         <v>27.91</v>
       </c>
-      <c r="R48" t="s">
-        <v>489</v>
+      <c r="R48" t="n">
+        <v>2135953</v>
       </c>
       <c r="S48" t="n">
         <v>26.02</v>
       </c>
-      <c r="T48" t="s">
-        <v>490</v>
+      <c r="T48" t="n">
+        <v>2398310</v>
       </c>
       <c r="U48" t="n">
         <v>28.78</v>
       </c>
-      <c r="V48" t="s">
-        <v>491</v>
+      <c r="V48" t="n">
+        <v>2008351</v>
       </c>
       <c r="W48" t="n">
         <v>25.03</v>
       </c>
-      <c r="X48" t="s">
-        <v>492</v>
+      <c r="X48" t="n">
+        <v>1824743</v>
       </c>
       <c r="Y48" t="n">
         <v>23.23</v>
       </c>
-      <c r="Z48" t="s">
-        <v>493</v>
+      <c r="Z48" t="n">
+        <v>2034747</v>
       </c>
       <c r="AA48" t="n">
         <v>26.28</v>
       </c>
-      <c r="AB48" t="s">
-        <v>494</v>
+      <c r="AB48" t="n">
+        <v>2342023</v>
       </c>
       <c r="AC48" t="n">
         <v>30.29</v>
       </c>
-      <c r="AD48" t="s">
-        <v>495</v>
+      <c r="AD48" t="n">
+        <v>2611678</v>
       </c>
       <c r="AE48" t="n">
         <v>33.48</v>
       </c>
-      <c r="AF48" t="s">
-        <v>496</v>
+      <c r="AF48" t="n">
+        <v>2604897</v>
       </c>
       <c r="AG48" t="n">
         <v>33.6</v>
@@ -6612,100 +4719,100 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B49" t="s">
-        <v>498</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5314198</v>
       </c>
       <c r="C49" t="n">
         <v>61.97</v>
       </c>
-      <c r="D49" t="s">
-        <v>499</v>
+      <c r="D49" t="n">
+        <v>5583173</v>
       </c>
       <c r="E49" t="n">
         <v>63.9</v>
       </c>
-      <c r="F49" t="s">
-        <v>500</v>
+      <c r="F49" t="n">
+        <v>5662222</v>
       </c>
       <c r="G49" t="n">
         <v>64.95999999999999</v>
       </c>
-      <c r="H49" t="s">
-        <v>501</v>
+      <c r="H49" t="n">
+        <v>5593001</v>
       </c>
       <c r="I49" t="n">
         <v>65.16</v>
       </c>
-      <c r="J49" t="s">
-        <v>502</v>
+      <c r="J49" t="n">
+        <v>5487153</v>
       </c>
       <c r="K49" t="n">
         <v>64.98</v>
       </c>
-      <c r="L49" t="s">
-        <v>503</v>
+      <c r="L49" t="n">
+        <v>5572577</v>
       </c>
       <c r="M49" t="n">
         <v>65.5</v>
       </c>
-      <c r="N49" t="s">
-        <v>504</v>
+      <c r="N49" t="n">
+        <v>5556970</v>
       </c>
       <c r="O49" t="n">
         <v>66.05</v>
       </c>
-      <c r="P49" t="s">
-        <v>505</v>
+      <c r="P49" t="n">
+        <v>5561570</v>
       </c>
       <c r="Q49" t="n">
         <v>66.5</v>
       </c>
-      <c r="R49" t="s">
-        <v>506</v>
+      <c r="R49" t="n">
+        <v>5442970</v>
       </c>
       <c r="S49" t="n">
         <v>66.31</v>
       </c>
-      <c r="T49" t="s">
-        <v>507</v>
+      <c r="T49" t="n">
+        <v>5639539</v>
       </c>
       <c r="U49" t="n">
         <v>67.67</v>
       </c>
-      <c r="V49" t="s">
-        <v>508</v>
+      <c r="V49" t="n">
+        <v>5330369</v>
       </c>
       <c r="W49" t="n">
         <v>66.42</v>
       </c>
-      <c r="X49" t="s">
-        <v>509</v>
+      <c r="X49" t="n">
+        <v>5212763</v>
       </c>
       <c r="Y49" t="n">
         <v>66.36</v>
       </c>
-      <c r="Z49" t="s">
-        <v>510</v>
+      <c r="Z49" t="n">
+        <v>5199696</v>
       </c>
       <c r="AA49" t="n">
         <v>67.17</v>
       </c>
-      <c r="AB49" t="s">
-        <v>511</v>
+      <c r="AB49" t="n">
+        <v>5257193</v>
       </c>
       <c r="AC49" t="n">
         <v>68</v>
       </c>
-      <c r="AD49" t="s">
-        <v>512</v>
+      <c r="AD49" t="n">
+        <v>5367970</v>
       </c>
       <c r="AE49" t="n">
         <v>68.81</v>
       </c>
-      <c r="AF49" t="s">
-        <v>513</v>
+      <c r="AF49" t="n">
+        <v>5360762</v>
       </c>
       <c r="AG49" t="n">
         <v>69.15000000000001</v>
@@ -6713,16 +4820,16 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
-        <v>50</v>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -6731,14 +4838,14 @@
       <c r="G50" t="s"/>
       <c r="H50" t="s"/>
       <c r="I50" t="s"/>
-      <c r="J50" t="s">
-        <v>50</v>
+      <c r="J50" t="n">
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="s">
-        <v>50</v>
+      <c r="L50" t="n">
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -6766,16 +4873,16 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
-        <v>50</v>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -6784,14 +4891,14 @@
       <c r="G51" t="s"/>
       <c r="H51" t="s"/>
       <c r="I51" t="s"/>
-      <c r="J51" t="s">
-        <v>50</v>
+      <c r="J51" t="n">
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="s">
-        <v>50</v>
+      <c r="L51" t="n">
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -6819,100 +4926,100 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B52" t="s">
-        <v>517</v>
+        <v>82</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14135</v>
       </c>
       <c r="C52" t="n">
         <v>0.16</v>
       </c>
-      <c r="D52" t="s">
-        <v>517</v>
+      <c r="D52" t="n">
+        <v>14135</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
       </c>
-      <c r="F52" t="s">
-        <v>517</v>
+      <c r="F52" t="n">
+        <v>14135</v>
       </c>
       <c r="G52" t="n">
         <v>0.16</v>
       </c>
-      <c r="H52" t="s">
-        <v>517</v>
+      <c r="H52" t="n">
+        <v>14135</v>
       </c>
       <c r="I52" t="n">
         <v>0.16</v>
       </c>
-      <c r="J52" t="s">
-        <v>517</v>
+      <c r="J52" t="n">
+        <v>14135</v>
       </c>
       <c r="K52" t="n">
         <v>0.17</v>
       </c>
-      <c r="L52" t="s">
-        <v>517</v>
+      <c r="L52" t="n">
+        <v>14135</v>
       </c>
       <c r="M52" t="n">
         <v>0.17</v>
       </c>
-      <c r="N52" t="s">
-        <v>517</v>
+      <c r="N52" t="n">
+        <v>14135</v>
       </c>
       <c r="O52" t="n">
         <v>0.17</v>
       </c>
-      <c r="P52" t="s">
-        <v>517</v>
+      <c r="P52" t="n">
+        <v>14135</v>
       </c>
       <c r="Q52" t="n">
         <v>0.17</v>
       </c>
-      <c r="R52" t="s">
-        <v>517</v>
+      <c r="R52" t="n">
+        <v>14135</v>
       </c>
       <c r="S52" t="n">
         <v>0.17</v>
       </c>
-      <c r="T52" t="s">
-        <v>517</v>
+      <c r="T52" t="n">
+        <v>14135</v>
       </c>
       <c r="U52" t="n">
         <v>0.17</v>
       </c>
-      <c r="V52" t="s">
-        <v>517</v>
+      <c r="V52" t="n">
+        <v>14135</v>
       </c>
       <c r="W52" t="n">
         <v>0.18</v>
       </c>
-      <c r="X52" t="s">
-        <v>517</v>
+      <c r="X52" t="n">
+        <v>14135</v>
       </c>
       <c r="Y52" t="n">
         <v>0.18</v>
       </c>
-      <c r="Z52" t="s">
-        <v>517</v>
+      <c r="Z52" t="n">
+        <v>14135</v>
       </c>
       <c r="AA52" t="n">
         <v>0.18</v>
       </c>
-      <c r="AB52" t="s">
-        <v>517</v>
+      <c r="AB52" t="n">
+        <v>14135</v>
       </c>
       <c r="AC52" t="n">
         <v>0.18</v>
       </c>
-      <c r="AD52" t="s">
-        <v>517</v>
+      <c r="AD52" t="n">
+        <v>14135</v>
       </c>
       <c r="AE52" t="n">
         <v>0.18</v>
       </c>
-      <c r="AF52" t="s">
-        <v>517</v>
+      <c r="AF52" t="n">
+        <v>14135</v>
       </c>
       <c r="AG52" t="n">
         <v>0.18</v>
@@ -6920,100 +5027,100 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B53" t="s">
-        <v>519</v>
+        <v>83</v>
+      </c>
+      <c r="B53" t="n">
+        <v>130408</v>
       </c>
       <c r="C53" t="n">
         <v>1.52</v>
       </c>
-      <c r="D53" t="s">
-        <v>520</v>
+      <c r="D53" t="n">
+        <v>146104</v>
       </c>
       <c r="E53" t="n">
         <v>1.67</v>
       </c>
-      <c r="F53" t="s">
-        <v>521</v>
+      <c r="F53" t="n">
+        <v>206989</v>
       </c>
       <c r="G53" t="n">
         <v>2.37</v>
       </c>
-      <c r="H53" t="s">
-        <v>522</v>
+      <c r="H53" t="n">
+        <v>216573</v>
       </c>
       <c r="I53" t="n">
         <v>2.52</v>
       </c>
-      <c r="J53" t="s">
-        <v>523</v>
+      <c r="J53" t="n">
+        <v>269002</v>
       </c>
       <c r="K53" t="n">
         <v>3.19</v>
       </c>
-      <c r="L53" t="s">
-        <v>524</v>
+      <c r="L53" t="n">
+        <v>258546</v>
       </c>
       <c r="M53" t="n">
         <v>3.04</v>
       </c>
-      <c r="N53" t="s">
-        <v>525</v>
+      <c r="N53" t="n">
+        <v>217554</v>
       </c>
       <c r="O53" t="n">
         <v>2.59</v>
       </c>
-      <c r="P53" t="s">
-        <v>526</v>
+      <c r="P53" t="n">
+        <v>261107</v>
       </c>
       <c r="Q53" t="n">
         <v>3.12</v>
       </c>
-      <c r="R53" t="s">
-        <v>527</v>
+      <c r="R53" t="n">
+        <v>241190</v>
       </c>
       <c r="S53" t="n">
         <v>2.94</v>
       </c>
-      <c r="T53" t="s">
-        <v>528</v>
+      <c r="T53" t="n">
+        <v>370011</v>
       </c>
       <c r="U53" t="n">
         <v>4.44</v>
       </c>
-      <c r="V53" t="s">
-        <v>529</v>
+      <c r="V53" t="n">
+        <v>286582</v>
       </c>
       <c r="W53" t="n">
         <v>3.57</v>
       </c>
-      <c r="X53" t="s">
-        <v>530</v>
+      <c r="X53" t="n">
+        <v>220129</v>
       </c>
       <c r="Y53" t="n">
         <v>2.8</v>
       </c>
-      <c r="Z53" t="s">
-        <v>531</v>
+      <c r="Z53" t="n">
+        <v>178494</v>
       </c>
       <c r="AA53" t="n">
         <v>2.31</v>
       </c>
-      <c r="AB53" t="s">
-        <v>532</v>
+      <c r="AB53" t="n">
+        <v>168359</v>
       </c>
       <c r="AC53" t="n">
         <v>2.18</v>
       </c>
-      <c r="AD53" t="s">
-        <v>533</v>
+      <c r="AD53" t="n">
+        <v>139091</v>
       </c>
       <c r="AE53" t="n">
         <v>1.78</v>
       </c>
-      <c r="AF53" t="s">
-        <v>534</v>
+      <c r="AF53" t="n">
+        <v>213090</v>
       </c>
       <c r="AG53" t="n">
         <v>2.75</v>
@@ -7021,16 +5128,16 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="s">
-        <v>50</v>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -7039,14 +5146,14 @@
       <c r="G54" t="s"/>
       <c r="H54" t="s"/>
       <c r="I54" t="s"/>
-      <c r="J54" t="s">
-        <v>50</v>
+      <c r="J54" t="n">
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
-      <c r="L54" t="s">
-        <v>50</v>
+      <c r="L54" t="n">
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -7074,52 +5181,52 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B55" t="s">
-        <v>537</v>
+        <v>85</v>
+      </c>
+      <c r="B55" t="n">
+        <v>18064</v>
       </c>
       <c r="C55" t="n">
         <v>0.21</v>
       </c>
-      <c r="D55" t="s">
-        <v>538</v>
+      <c r="D55" t="n">
+        <v>3113</v>
       </c>
       <c r="E55" t="n">
         <v>0.04</v>
       </c>
-      <c r="F55" t="s">
-        <v>539</v>
+      <c r="F55" t="n">
+        <v>6489</v>
       </c>
       <c r="G55" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H55" t="s">
-        <v>540</v>
+      <c r="H55" t="n">
+        <v>7591</v>
       </c>
       <c r="I55" t="n">
         <v>0.09</v>
       </c>
-      <c r="J55" t="s">
-        <v>541</v>
+      <c r="J55" t="n">
+        <v>9129</v>
       </c>
       <c r="K55" t="n">
         <v>0.11</v>
       </c>
-      <c r="L55" t="s">
-        <v>542</v>
+      <c r="L55" t="n">
+        <v>6956</v>
       </c>
       <c r="M55" t="n">
         <v>0.08</v>
       </c>
-      <c r="N55" t="s">
-        <v>543</v>
+      <c r="N55" t="n">
+        <v>12128</v>
       </c>
       <c r="O55" t="n">
         <v>0.14</v>
       </c>
-      <c r="P55" t="s">
-        <v>544</v>
+      <c r="P55" t="n">
+        <v>13068</v>
       </c>
       <c r="Q55" t="n">
         <v>0.16</v>
@@ -7143,52 +5250,52 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B56" t="s">
-        <v>546</v>
+        <v>86</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4134</v>
       </c>
       <c r="C56" t="n">
         <v>0.05</v>
       </c>
-      <c r="D56" t="s">
-        <v>547</v>
+      <c r="D56" t="n">
+        <v>4114</v>
       </c>
       <c r="E56" t="n">
         <v>0.05</v>
       </c>
-      <c r="F56" t="s">
-        <v>548</v>
+      <c r="F56" t="n">
+        <v>3146</v>
       </c>
       <c r="G56" t="n">
         <v>0.04</v>
       </c>
-      <c r="H56" t="s">
-        <v>549</v>
+      <c r="H56" t="n">
+        <v>1078</v>
       </c>
       <c r="I56" t="n">
         <v>0.01</v>
       </c>
-      <c r="J56" t="s">
-        <v>550</v>
+      <c r="J56" t="n">
+        <v>314</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
-      <c r="L56" t="s">
-        <v>551</v>
+      <c r="L56" t="n">
+        <v>46</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="N56" t="s">
-        <v>552</v>
+      <c r="N56" t="n">
+        <v>55</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="s">
-        <v>553</v>
+      <c r="P56" t="n">
+        <v>85</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -7212,100 +5319,100 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B57" t="s">
-        <v>555</v>
+        <v>87</v>
+      </c>
+      <c r="B57" t="n">
+        <v>891052</v>
       </c>
       <c r="C57" t="n">
         <v>10.39</v>
       </c>
-      <c r="D57" t="s">
-        <v>556</v>
+      <c r="D57" t="n">
+        <v>906524</v>
       </c>
       <c r="E57" t="n">
         <v>10.38</v>
       </c>
-      <c r="F57" t="s">
-        <v>557</v>
+      <c r="F57" t="n">
+        <v>844925</v>
       </c>
       <c r="G57" t="n">
         <v>9.69</v>
       </c>
-      <c r="H57" t="s">
-        <v>558</v>
+      <c r="H57" t="n">
+        <v>696430</v>
       </c>
       <c r="I57" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="J57" t="s">
-        <v>559</v>
+      <c r="J57" t="n">
+        <v>714996</v>
       </c>
       <c r="K57" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="L57" t="s">
-        <v>560</v>
+      <c r="L57" t="n">
+        <v>530287</v>
       </c>
       <c r="M57" t="n">
         <v>6.23</v>
       </c>
-      <c r="N57" t="s">
-        <v>561</v>
+      <c r="N57" t="n">
+        <v>491233</v>
       </c>
       <c r="O57" t="n">
         <v>5.84</v>
       </c>
-      <c r="P57" t="s">
-        <v>562</v>
+      <c r="P57" t="n">
+        <v>395113</v>
       </c>
       <c r="Q57" t="n">
         <v>4.72</v>
       </c>
-      <c r="R57" t="s">
-        <v>563</v>
+      <c r="R57" t="n">
+        <v>290056</v>
       </c>
       <c r="S57" t="n">
         <v>3.53</v>
       </c>
-      <c r="T57" t="s">
-        <v>564</v>
+      <c r="T57" t="n">
+        <v>329454</v>
       </c>
       <c r="U57" t="n">
         <v>3.95</v>
       </c>
-      <c r="V57" t="s">
-        <v>565</v>
+      <c r="V57" t="n">
+        <v>659690</v>
       </c>
       <c r="W57" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="X57" t="s">
-        <v>566</v>
+      <c r="X57" t="n">
+        <v>364721</v>
       </c>
       <c r="Y57" t="n">
         <v>4.64</v>
       </c>
-      <c r="Z57" t="s">
-        <v>567</v>
+      <c r="Z57" t="n">
+        <v>522446</v>
       </c>
       <c r="AA57" t="n">
         <v>6.75</v>
       </c>
-      <c r="AB57" t="s">
-        <v>568</v>
+      <c r="AB57" t="n">
+        <v>502606</v>
       </c>
       <c r="AC57" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD57" t="s">
-        <v>569</v>
+      <c r="AD57" t="n">
+        <v>1210108</v>
       </c>
       <c r="AE57" t="n">
         <v>15.51</v>
       </c>
-      <c r="AF57" t="s">
-        <v>570</v>
+      <c r="AF57" t="n">
+        <v>1185829</v>
       </c>
       <c r="AG57" t="n">
         <v>15.3</v>
@@ -7313,100 +5420,100 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B58" t="s">
-        <v>404</v>
+        <v>88</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4047380</v>
       </c>
       <c r="C58" t="n">
         <v>47.2</v>
       </c>
-      <c r="D58" t="s">
-        <v>404</v>
+      <c r="D58" t="n">
+        <v>4047380</v>
       </c>
       <c r="E58" t="n">
         <v>46.32</v>
       </c>
-      <c r="F58" t="s">
-        <v>404</v>
+      <c r="F58" t="n">
+        <v>4047380</v>
       </c>
       <c r="G58" t="n">
         <v>46.43</v>
       </c>
-      <c r="H58" t="s">
-        <v>404</v>
+      <c r="H58" t="n">
+        <v>4047380</v>
       </c>
       <c r="I58" t="n">
         <v>47.16</v>
       </c>
-      <c r="J58" t="s">
-        <v>404</v>
+      <c r="J58" t="n">
+        <v>4047380</v>
       </c>
       <c r="K58" t="n">
         <v>47.93</v>
       </c>
-      <c r="L58" t="s">
-        <v>404</v>
+      <c r="L58" t="n">
+        <v>4047380</v>
       </c>
       <c r="M58" t="n">
         <v>47.57</v>
       </c>
-      <c r="N58" t="s">
-        <v>404</v>
+      <c r="N58" t="n">
+        <v>4047380</v>
       </c>
       <c r="O58" t="n">
         <v>48.1</v>
       </c>
-      <c r="P58" t="s">
-        <v>404</v>
+      <c r="P58" t="n">
+        <v>4047380</v>
       </c>
       <c r="Q58" t="n">
         <v>48.39</v>
       </c>
-      <c r="R58" t="s">
-        <v>404</v>
+      <c r="R58" t="n">
+        <v>4047380</v>
       </c>
       <c r="S58" t="n">
         <v>49.31</v>
       </c>
-      <c r="T58" t="s">
-        <v>404</v>
+      <c r="T58" t="n">
+        <v>4047380</v>
       </c>
       <c r="U58" t="n">
         <v>48.56</v>
       </c>
-      <c r="V58" t="s">
-        <v>404</v>
+      <c r="V58" t="n">
+        <v>4047380</v>
       </c>
       <c r="W58" t="n">
         <v>50.43</v>
       </c>
-      <c r="X58" t="s">
-        <v>404</v>
+      <c r="X58" t="n">
+        <v>4047380</v>
       </c>
       <c r="Y58" t="n">
         <v>51.52</v>
       </c>
-      <c r="Z58" t="s">
-        <v>404</v>
+      <c r="Z58" t="n">
+        <v>4047380</v>
       </c>
       <c r="AA58" t="n">
         <v>52.28</v>
       </c>
-      <c r="AB58" t="s">
-        <v>404</v>
+      <c r="AB58" t="n">
+        <v>4047380</v>
       </c>
       <c r="AC58" t="n">
         <v>52.35</v>
       </c>
-      <c r="AD58" t="s">
-        <v>404</v>
+      <c r="AD58" t="n">
+        <v>4047380</v>
       </c>
       <c r="AE58" t="n">
         <v>51.88</v>
       </c>
-      <c r="AF58" t="s">
-        <v>404</v>
+      <c r="AF58" t="n">
+        <v>4047380</v>
       </c>
       <c r="AG58" t="n">
         <v>52.21</v>
@@ -7414,16 +5521,16 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B59" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="s">
-        <v>50</v>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -7432,14 +5539,14 @@
       <c r="G59" t="s"/>
       <c r="H59" t="s"/>
       <c r="I59" t="s"/>
-      <c r="J59" t="s">
-        <v>50</v>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="s">
-        <v>50</v>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -7452,8 +5559,8 @@
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="s"/>
-      <c r="V59" t="s">
-        <v>573</v>
+      <c r="V59" t="n">
+        <v>978</v>
       </c>
       <c r="W59" t="n">
         <v>0.01</v>
@@ -7471,7 +5578,7 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="1" t="s">
-        <v>574</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
@@ -7489,50 +5596,50 @@
       <c r="O60" t="s"/>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
-      <c r="R60" t="s">
-        <v>575</v>
+      <c r="R60" t="n">
+        <v>8208186</v>
       </c>
       <c r="S60" t="n">
         <v>100</v>
       </c>
-      <c r="T60" t="s">
-        <v>576</v>
+      <c r="T60" t="n">
+        <v>8334271</v>
       </c>
       <c r="U60" t="n">
         <v>100</v>
       </c>
-      <c r="V60" t="s">
-        <v>577</v>
+      <c r="V60" t="n">
+        <v>8025294</v>
       </c>
       <c r="W60" t="n">
         <v>100</v>
       </c>
-      <c r="X60" t="s">
-        <v>578</v>
+      <c r="X60" t="n">
+        <v>7855502</v>
       </c>
       <c r="Y60" t="n">
         <v>100</v>
       </c>
-      <c r="Z60" t="s">
-        <v>579</v>
+      <c r="Z60" t="n">
+        <v>7741112</v>
       </c>
       <c r="AA60" t="n">
         <v>100</v>
       </c>
-      <c r="AB60" t="s">
-        <v>580</v>
+      <c r="AB60" t="n">
+        <v>7731041</v>
       </c>
       <c r="AC60" t="n">
         <v>100</v>
       </c>
-      <c r="AD60" t="s">
-        <v>581</v>
+      <c r="AD60" t="n">
+        <v>7801041</v>
       </c>
       <c r="AE60" t="n">
         <v>100</v>
       </c>
-      <c r="AF60" t="s">
-        <v>582</v>
+      <c r="AF60" t="n">
+        <v>7752644</v>
       </c>
       <c r="AG60" t="n">
         <v>100</v>
@@ -7540,16 +5647,16 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B61" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" t="s">
-        <v>50</v>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -7558,14 +5665,14 @@
       <c r="G61" t="s"/>
       <c r="H61" t="s"/>
       <c r="I61" t="s"/>
-      <c r="J61" t="s">
-        <v>50</v>
+      <c r="J61" t="n">
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="s">
-        <v>50</v>
+      <c r="L61" t="n">
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -7593,16 +5700,16 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B62" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" t="s">
-        <v>50</v>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -7611,14 +5718,14 @@
       <c r="G62" t="s"/>
       <c r="H62" t="s"/>
       <c r="I62" t="s"/>
-      <c r="J62" t="s">
-        <v>50</v>
+      <c r="J62" t="n">
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="s">
-        <v>50</v>
+      <c r="L62" t="n">
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -7646,100 +5753,100 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B63" t="s">
-        <v>586</v>
+        <v>93</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4291939</v>
       </c>
       <c r="C63" t="n">
         <v>50.05</v>
       </c>
-      <c r="D63" t="s">
-        <v>587</v>
+      <c r="D63" t="n">
+        <v>4391129</v>
       </c>
       <c r="E63" t="n">
         <v>50.26</v>
       </c>
-      <c r="F63" t="s">
-        <v>588</v>
+      <c r="F63" t="n">
+        <v>4317189</v>
       </c>
       <c r="G63" t="n">
         <v>49.53</v>
       </c>
-      <c r="H63" t="s">
-        <v>589</v>
+      <c r="H63" t="n">
+        <v>4179603</v>
       </c>
       <c r="I63" t="n">
         <v>48.7</v>
       </c>
-      <c r="J63" t="s">
-        <v>590</v>
+      <c r="J63" t="n">
+        <v>3960947</v>
       </c>
       <c r="K63" t="n">
         <v>46.9</v>
       </c>
-      <c r="L63" t="s">
-        <v>591</v>
+      <c r="L63" t="n">
+        <v>4064108</v>
       </c>
       <c r="M63" t="n">
         <v>47.77</v>
       </c>
-      <c r="N63" t="s">
-        <v>592</v>
+      <c r="N63" t="n">
+        <v>3905399</v>
       </c>
       <c r="O63" t="n">
         <v>46.42</v>
       </c>
-      <c r="P63" t="s">
-        <v>593</v>
+      <c r="P63" t="n">
+        <v>3748165</v>
       </c>
       <c r="Q63" t="n">
         <v>44.82</v>
       </c>
-      <c r="R63" t="s">
-        <v>594</v>
+      <c r="R63" t="n">
+        <v>3436442</v>
       </c>
       <c r="S63" t="n">
         <v>41.87</v>
       </c>
-      <c r="T63" t="s">
-        <v>595</v>
+      <c r="T63" t="n">
+        <v>3665201</v>
       </c>
       <c r="U63" t="n">
         <v>43.98</v>
       </c>
-      <c r="V63" t="s">
-        <v>596</v>
+      <c r="V63" t="n">
+        <v>3250680</v>
       </c>
       <c r="W63" t="n">
         <v>40.51</v>
       </c>
-      <c r="X63" t="s">
-        <v>597</v>
+      <c r="X63" t="n">
+        <v>3009838</v>
       </c>
       <c r="Y63" t="n">
         <v>38.32</v>
       </c>
-      <c r="Z63" t="s">
-        <v>598</v>
+      <c r="Z63" t="n">
+        <v>2795732</v>
       </c>
       <c r="AA63" t="n">
         <v>36.12</v>
       </c>
-      <c r="AB63" t="s">
-        <v>599</v>
+      <c r="AB63" t="n">
+        <v>3034745</v>
       </c>
       <c r="AC63" t="n">
         <v>39.25</v>
       </c>
-      <c r="AD63" t="s">
-        <v>600</v>
+      <c r="AD63" t="n">
+        <v>3029113</v>
       </c>
       <c r="AE63" t="n">
         <v>38.83</v>
       </c>
-      <c r="AF63" t="s">
-        <v>601</v>
+      <c r="AF63" t="n">
+        <v>2950808</v>
       </c>
       <c r="AG63" t="n">
         <v>38.06</v>
@@ -7747,7 +5854,7 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="1" t="s">
-        <v>602</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
@@ -7771,14 +5878,14 @@
       <c r="U64" t="s"/>
       <c r="V64" t="s"/>
       <c r="W64" t="s"/>
-      <c r="X64" t="s">
-        <v>603</v>
+      <c r="X64" t="n">
+        <v>8</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
       </c>
-      <c r="Z64" t="s">
-        <v>603</v>
+      <c r="Z64" t="n">
+        <v>8</v>
       </c>
       <c r="AA64" t="n">
         <v>0</v>
@@ -7787,8 +5894,8 @@
       <c r="AC64" t="s"/>
       <c r="AD64" t="s"/>
       <c r="AE64" t="s"/>
-      <c r="AF64" t="s">
-        <v>603</v>
+      <c r="AF64" t="n">
+        <v>8</v>
       </c>
       <c r="AG64" t="n">
         <v>0</v>
@@ -7796,100 +5903,100 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B65" t="s">
-        <v>605</v>
+        <v>95</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="s">
-        <v>606</v>
+      <c r="D65" t="n">
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="s">
-        <v>606</v>
+      <c r="F65" t="n">
+        <v>7</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
-        <v>606</v>
+      <c r="H65" t="n">
+        <v>7</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>606</v>
+      <c r="J65" t="n">
+        <v>7</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
-      <c r="L65" t="s">
-        <v>606</v>
+      <c r="L65" t="n">
+        <v>7</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
-      <c r="N65" t="s">
-        <v>606</v>
+      <c r="N65" t="n">
+        <v>7</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
-      <c r="P65" t="s">
-        <v>50</v>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="s">
-        <v>50</v>
+      <c r="R65" t="n">
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
-      <c r="T65" t="s">
-        <v>50</v>
+      <c r="T65" t="n">
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="s">
-        <v>603</v>
+      <c r="V65" t="n">
+        <v>8</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
-      <c r="X65" t="s">
-        <v>603</v>
+      <c r="X65" t="n">
+        <v>8</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
       </c>
-      <c r="Z65" t="s">
-        <v>603</v>
+      <c r="Z65" t="n">
+        <v>8</v>
       </c>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
-      <c r="AB65" t="s">
-        <v>603</v>
+      <c r="AB65" t="n">
+        <v>8</v>
       </c>
       <c r="AC65" t="n">
         <v>0</v>
       </c>
-      <c r="AD65" t="s">
-        <v>603</v>
+      <c r="AD65" t="n">
+        <v>8</v>
       </c>
       <c r="AE65" t="n">
         <v>0</v>
       </c>
-      <c r="AF65" t="s">
-        <v>603</v>
+      <c r="AF65" t="n">
+        <v>8</v>
       </c>
       <c r="AG65" t="n">
         <v>0</v>
@@ -7897,7 +6004,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="1" t="s">
-        <v>607</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -7905,50 +6012,50 @@
       <c r="E66" t="s"/>
       <c r="F66" t="s"/>
       <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>606</v>
+      <c r="H66" t="n">
+        <v>7</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>606</v>
+      <c r="J66" t="n">
+        <v>7</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="s">
-        <v>606</v>
+      <c r="L66" t="n">
+        <v>7</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
-      <c r="N66" t="s">
-        <v>606</v>
+      <c r="N66" t="n">
+        <v>7</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
-      <c r="P66" t="s">
-        <v>50</v>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="s">
-        <v>50</v>
+      <c r="R66" t="n">
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
-      <c r="T66" t="s">
-        <v>50</v>
+      <c r="T66" t="n">
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
       </c>
-      <c r="V66" t="s">
-        <v>603</v>
+      <c r="V66" t="n">
+        <v>8</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -7957,14 +6064,14 @@
       <c r="Y66" t="s"/>
       <c r="Z66" t="s"/>
       <c r="AA66" t="s"/>
-      <c r="AB66" t="s">
-        <v>603</v>
+      <c r="AB66" t="n">
+        <v>8</v>
       </c>
       <c r="AC66" t="n">
         <v>0</v>
       </c>
-      <c r="AD66" t="s">
-        <v>603</v>
+      <c r="AD66" t="n">
+        <v>8</v>
       </c>
       <c r="AE66" t="n">
         <v>0</v>
@@ -7974,30 +6081,30 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B67" t="s">
-        <v>605</v>
+        <v>97</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="s">
-        <v>606</v>
+      <c r="D67" t="n">
+        <v>7</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="s">
-        <v>606</v>
+      <c r="F67" t="n">
+        <v>7</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="s"/>
       <c r="I67" t="s"/>
-      <c r="J67" t="s">
-        <v>50</v>
+      <c r="J67" t="n">
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -8027,100 +6134,100 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B68" t="s">
-        <v>610</v>
+        <v>98</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8575113</v>
       </c>
       <c r="C68" t="n">
         <v>100</v>
       </c>
-      <c r="D68" t="s">
-        <v>611</v>
+      <c r="D68" t="n">
+        <v>8737555</v>
       </c>
       <c r="E68" t="n">
         <v>100</v>
       </c>
-      <c r="F68" t="s">
-        <v>612</v>
+      <c r="F68" t="n">
+        <v>8716909</v>
       </c>
       <c r="G68" t="n">
         <v>100</v>
       </c>
-      <c r="H68" t="s">
-        <v>613</v>
+      <c r="H68" t="n">
+        <v>8583007</v>
       </c>
       <c r="I68" t="n">
         <v>100</v>
       </c>
-      <c r="J68" t="s">
-        <v>614</v>
+      <c r="J68" t="n">
+        <v>8444992</v>
       </c>
       <c r="K68" t="n">
         <v>100</v>
       </c>
-      <c r="L68" t="s">
-        <v>615</v>
+      <c r="L68" t="n">
+        <v>8508107</v>
       </c>
       <c r="M68" t="n">
         <v>100</v>
       </c>
-      <c r="N68" t="s">
-        <v>616</v>
+      <c r="N68" t="n">
+        <v>8413650</v>
       </c>
       <c r="O68" t="n">
         <v>100</v>
       </c>
-      <c r="P68" t="s">
-        <v>617</v>
+      <c r="P68" t="n">
+        <v>8363279</v>
       </c>
       <c r="Q68" t="n">
         <v>100</v>
       </c>
-      <c r="R68" t="s">
-        <v>575</v>
+      <c r="R68" t="n">
+        <v>8208186</v>
       </c>
       <c r="S68" t="n">
         <v>100</v>
       </c>
-      <c r="T68" t="s">
-        <v>576</v>
+      <c r="T68" t="n">
+        <v>8334271</v>
       </c>
       <c r="U68" t="n">
         <v>100</v>
       </c>
-      <c r="V68" t="s">
-        <v>577</v>
+      <c r="V68" t="n">
+        <v>8025294</v>
       </c>
       <c r="W68" t="n">
         <v>100</v>
       </c>
-      <c r="X68" t="s">
-        <v>578</v>
+      <c r="X68" t="n">
+        <v>7855502</v>
       </c>
       <c r="Y68" t="n">
         <v>100</v>
       </c>
-      <c r="Z68" t="s">
-        <v>579</v>
+      <c r="Z68" t="n">
+        <v>7741112</v>
       </c>
       <c r="AA68" t="n">
         <v>100</v>
       </c>
-      <c r="AB68" t="s">
-        <v>580</v>
+      <c r="AB68" t="n">
+        <v>7731041</v>
       </c>
       <c r="AC68" t="n">
         <v>100</v>
       </c>
-      <c r="AD68" t="s">
-        <v>581</v>
+      <c r="AD68" t="n">
+        <v>7801041</v>
       </c>
       <c r="AE68" t="n">
         <v>100</v>
       </c>
-      <c r="AF68" t="s">
-        <v>582</v>
+      <c r="AF68" t="n">
+        <v>7752644</v>
       </c>
       <c r="AG68" t="n">
         <v>100</v>
@@ -8128,16 +6235,16 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B69" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="s">
-        <v>50</v>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -8146,14 +6253,14 @@
       <c r="G69" t="s"/>
       <c r="H69" t="s"/>
       <c r="I69" t="s"/>
-      <c r="J69" t="s">
-        <v>50</v>
+      <c r="J69" t="n">
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
-      <c r="L69" t="s">
-        <v>50</v>
+      <c r="L69" t="n">
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -8181,40 +6288,40 @@
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B70" t="s">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="s">
-        <v>50</v>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="s">
-        <v>50</v>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
-        <v>50</v>
+      <c r="H70" t="n">
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>50</v>
+      <c r="J70" t="n">
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
-      <c r="L70" t="s">
-        <v>50</v>
+      <c r="L70" t="n">
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -8242,16 +6349,16 @@
     </row>
     <row r="71" spans="1:33">
       <c r="A71" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B71" t="s">
-        <v>50</v>
+        <v>101</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" t="s">
-        <v>50</v>
+      <c r="D71" t="n">
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -8260,14 +6367,14 @@
       <c r="G71" t="s"/>
       <c r="H71" t="s"/>
       <c r="I71" t="s"/>
-      <c r="J71" t="s">
-        <v>50</v>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
-      <c r="L71" t="s">
-        <v>50</v>
+      <c r="L71" t="n">
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -8295,16 +6402,16 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" t="s">
-        <v>50</v>
+      <c r="D72" t="n">
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -8313,8 +6420,8 @@
       <c r="G72" t="s"/>
       <c r="H72" t="s"/>
       <c r="I72" t="s"/>
-      <c r="J72" t="s">
-        <v>50</v>
+      <c r="J72" t="n">
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -8344,16 +6451,16 @@
     </row>
     <row r="73" spans="1:33">
       <c r="A73" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B73" t="s">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="s">
-        <v>50</v>
+      <c r="D73" t="n">
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -8362,14 +6469,14 @@
       <c r="G73" t="s"/>
       <c r="H73" t="s"/>
       <c r="I73" t="s"/>
-      <c r="J73" t="s">
-        <v>50</v>
+      <c r="J73" t="n">
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
-      <c r="L73" t="s">
-        <v>50</v>
+      <c r="L73" t="n">
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -8397,100 +6504,100 @@
     </row>
     <row r="74" spans="1:33">
       <c r="A74" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B74" t="s">
-        <v>624</v>
+        <v>104</v>
+      </c>
+      <c r="B74" t="n">
+        <v>94083</v>
       </c>
       <c r="C74" t="n">
         <v>1.1</v>
       </c>
-      <c r="D74" t="s">
-        <v>625</v>
+      <c r="D74" t="n">
+        <v>90042</v>
       </c>
       <c r="E74" t="n">
         <v>1.03</v>
       </c>
-      <c r="F74" t="s">
-        <v>626</v>
+      <c r="F74" t="n">
+        <v>89360</v>
       </c>
       <c r="G74" t="n">
         <v>1.03</v>
       </c>
-      <c r="H74" t="s">
-        <v>627</v>
+      <c r="H74" t="n">
+        <v>88147</v>
       </c>
       <c r="I74" t="n">
         <v>1.03</v>
       </c>
-      <c r="J74" t="s">
-        <v>628</v>
+      <c r="J74" t="n">
+        <v>87298</v>
       </c>
       <c r="K74" t="n">
         <v>1.03</v>
       </c>
-      <c r="L74" t="s">
-        <v>629</v>
+      <c r="L74" t="n">
+        <v>81085</v>
       </c>
       <c r="M74" t="n">
         <v>0.95</v>
       </c>
-      <c r="N74" t="s">
-        <v>630</v>
+      <c r="N74" t="n">
+        <v>81992</v>
       </c>
       <c r="O74" t="n">
         <v>0.97</v>
       </c>
-      <c r="P74" t="s">
-        <v>631</v>
+      <c r="P74" t="n">
+        <v>78941</v>
       </c>
       <c r="Q74" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R74" t="s">
-        <v>632</v>
+      <c r="R74" t="n">
+        <v>91115</v>
       </c>
       <c r="S74" t="n">
         <v>1.11</v>
       </c>
-      <c r="T74" t="s">
-        <v>633</v>
+      <c r="T74" t="n">
+        <v>89164</v>
       </c>
       <c r="U74" t="n">
         <v>1.07</v>
       </c>
-      <c r="V74" t="s">
-        <v>634</v>
+      <c r="V74" t="n">
+        <v>89048</v>
       </c>
       <c r="W74" t="n">
         <v>1.11</v>
       </c>
-      <c r="X74" t="s">
-        <v>635</v>
+      <c r="X74" t="n">
+        <v>68270</v>
       </c>
       <c r="Y74" t="n">
         <v>0.87</v>
       </c>
-      <c r="Z74" t="s">
-        <v>636</v>
+      <c r="Z74" t="n">
+        <v>65012</v>
       </c>
       <c r="AA74" t="n">
         <v>0.84</v>
       </c>
-      <c r="AB74" t="s">
-        <v>637</v>
+      <c r="AB74" t="n">
+        <v>62213</v>
       </c>
       <c r="AC74" t="n">
         <v>0.8</v>
       </c>
-      <c r="AD74" t="s">
-        <v>638</v>
+      <c r="AD74" t="n">
+        <v>60831</v>
       </c>
       <c r="AE74" t="n">
         <v>0.78</v>
       </c>
-      <c r="AF74" t="s">
-        <v>639</v>
+      <c r="AF74" t="n">
+        <v>59604</v>
       </c>
       <c r="AG74" t="n">
         <v>0.77</v>
@@ -8498,100 +6605,100 @@
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B75" t="s">
-        <v>641</v>
+        <v>105</v>
+      </c>
+      <c r="B75" t="n">
+        <v>222450</v>
       </c>
       <c r="C75" t="n">
         <v>2.59</v>
       </c>
-      <c r="D75" t="s">
-        <v>642</v>
+      <c r="D75" t="n">
+        <v>208290</v>
       </c>
       <c r="E75" t="n">
         <v>2.38</v>
       </c>
-      <c r="F75" t="s">
-        <v>643</v>
+      <c r="F75" t="n">
+        <v>196731</v>
       </c>
       <c r="G75" t="n">
         <v>2.26</v>
       </c>
-      <c r="H75" t="s">
-        <v>644</v>
+      <c r="H75" t="n">
+        <v>195107</v>
       </c>
       <c r="I75" t="n">
         <v>2.27</v>
       </c>
-      <c r="J75" t="s">
-        <v>645</v>
+      <c r="J75" t="n">
+        <v>177981</v>
       </c>
       <c r="K75" t="n">
         <v>2.11</v>
       </c>
-      <c r="L75" t="s">
-        <v>646</v>
+      <c r="L75" t="n">
+        <v>150977</v>
       </c>
       <c r="M75" t="n">
         <v>1.77</v>
       </c>
-      <c r="N75" t="s">
-        <v>647</v>
+      <c r="N75" t="n">
+        <v>140134</v>
       </c>
       <c r="O75" t="n">
         <v>1.67</v>
       </c>
-      <c r="P75" t="s">
-        <v>648</v>
+      <c r="P75" t="n">
+        <v>130512</v>
       </c>
       <c r="Q75" t="n">
         <v>1.56</v>
       </c>
-      <c r="R75" t="s">
-        <v>649</v>
+      <c r="R75" t="n">
+        <v>150747</v>
       </c>
       <c r="S75" t="n">
         <v>1.84</v>
       </c>
-      <c r="T75" t="s">
-        <v>650</v>
+      <c r="T75" t="n">
+        <v>152772</v>
       </c>
       <c r="U75" t="n">
         <v>1.83</v>
       </c>
-      <c r="V75" t="s">
-        <v>651</v>
+      <c r="V75" t="n">
+        <v>140609</v>
       </c>
       <c r="W75" t="n">
         <v>1.75</v>
       </c>
-      <c r="X75" t="s">
-        <v>652</v>
+      <c r="X75" t="n">
+        <v>151023</v>
       </c>
       <c r="Y75" t="n">
         <v>1.92</v>
       </c>
-      <c r="Z75" t="s">
-        <v>653</v>
+      <c r="Z75" t="n">
+        <v>127713</v>
       </c>
       <c r="AA75" t="n">
         <v>1.65</v>
       </c>
-      <c r="AB75" t="s">
-        <v>654</v>
+      <c r="AB75" t="n">
+        <v>108110</v>
       </c>
       <c r="AC75" t="n">
         <v>1.4</v>
       </c>
-      <c r="AD75" t="s">
-        <v>655</v>
+      <c r="AD75" t="n">
+        <v>108643</v>
       </c>
       <c r="AE75" t="n">
         <v>1.39</v>
       </c>
-      <c r="AF75" t="s">
-        <v>656</v>
+      <c r="AF75" t="n">
+        <v>122317</v>
       </c>
       <c r="AG75" t="n">
         <v>1.58</v>
@@ -8599,16 +6706,16 @@
     </row>
     <row r="76" spans="1:33">
       <c r="A76" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B76" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
-        <v>50</v>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -8617,14 +6724,14 @@
       <c r="G76" t="s"/>
       <c r="H76" t="s"/>
       <c r="I76" t="s"/>
-      <c r="J76" t="s">
-        <v>50</v>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="s">
-        <v>50</v>
+      <c r="L76" t="n">
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -8652,16 +6759,16 @@
     </row>
     <row r="77" spans="1:33">
       <c r="A77" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B77" t="s">
-        <v>50</v>
+        <v>107</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="s">
-        <v>50</v>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -8670,14 +6777,14 @@
       <c r="G77" t="s"/>
       <c r="H77" t="s"/>
       <c r="I77" t="s"/>
-      <c r="J77" t="s">
-        <v>50</v>
+      <c r="J77" t="n">
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="s">
-        <v>50</v>
+      <c r="L77" t="n">
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -8705,100 +6812,100 @@
     </row>
     <row r="78" spans="1:33">
       <c r="A78" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B78" t="s">
-        <v>660</v>
+        <v>108</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1480448</v>
       </c>
       <c r="C78" t="n">
         <v>17.26</v>
       </c>
-      <c r="D78" t="s">
-        <v>661</v>
+      <c r="D78" t="n">
+        <v>1552550</v>
       </c>
       <c r="E78" t="n">
         <v>17.77</v>
       </c>
-      <c r="F78" t="s">
-        <v>662</v>
+      <c r="F78" t="n">
+        <v>1474285</v>
       </c>
       <c r="G78" t="n">
         <v>16.91</v>
       </c>
-      <c r="H78" t="s">
-        <v>663</v>
+      <c r="H78" t="n">
+        <v>1396538</v>
       </c>
       <c r="I78" t="n">
         <v>16.27</v>
       </c>
-      <c r="J78" t="s">
-        <v>664</v>
+      <c r="J78" t="n">
+        <v>1280266</v>
       </c>
       <c r="K78" t="n">
         <v>15.16</v>
       </c>
-      <c r="L78" t="s">
-        <v>665</v>
+      <c r="L78" t="n">
+        <v>1272700</v>
       </c>
       <c r="M78" t="n">
         <v>14.96</v>
       </c>
-      <c r="N78" t="s">
-        <v>666</v>
+      <c r="N78" t="n">
+        <v>1287000</v>
       </c>
       <c r="O78" t="n">
         <v>15.3</v>
       </c>
-      <c r="P78" t="s">
-        <v>667</v>
+      <c r="P78" t="n">
+        <v>912800</v>
       </c>
       <c r="Q78" t="n">
         <v>10.91</v>
       </c>
-      <c r="R78" t="s">
-        <v>668</v>
+      <c r="R78" t="n">
+        <v>785100</v>
       </c>
       <c r="S78" t="n">
         <v>9.56</v>
       </c>
-      <c r="T78" t="s">
-        <v>669</v>
+      <c r="T78" t="n">
+        <v>753400</v>
       </c>
       <c r="U78" t="n">
         <v>9.039999999999999</v>
       </c>
-      <c r="V78" t="s">
-        <v>670</v>
+      <c r="V78" t="n">
+        <v>735700</v>
       </c>
       <c r="W78" t="n">
         <v>9.17</v>
       </c>
-      <c r="X78" t="s">
-        <v>671</v>
+      <c r="X78" t="n">
+        <v>694850</v>
       </c>
       <c r="Y78" t="n">
         <v>8.85</v>
       </c>
-      <c r="Z78" t="s">
-        <v>672</v>
+      <c r="Z78" t="n">
+        <v>556538</v>
       </c>
       <c r="AA78" t="n">
         <v>7.19</v>
       </c>
-      <c r="AB78" t="s">
-        <v>673</v>
+      <c r="AB78" t="n">
+        <v>484438</v>
       </c>
       <c r="AC78" t="n">
         <v>6.27</v>
       </c>
-      <c r="AD78" t="s">
-        <v>674</v>
+      <c r="AD78" t="n">
+        <v>210638</v>
       </c>
       <c r="AE78" t="n">
         <v>2.7</v>
       </c>
-      <c r="AF78" t="s">
-        <v>675</v>
+      <c r="AF78" t="n">
+        <v>135338</v>
       </c>
       <c r="AG78" t="n">
         <v>1.75</v>
@@ -8806,100 +6913,100 @@
     </row>
     <row r="79" spans="1:33">
       <c r="A79" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B79" t="s">
-        <v>677</v>
+        <v>109</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-19264</v>
       </c>
       <c r="C79" t="n">
         <v>-0.22</v>
       </c>
-      <c r="D79" t="s">
-        <v>678</v>
+      <c r="D79" t="n">
+        <v>21568</v>
       </c>
       <c r="E79" t="n">
         <v>0.25</v>
       </c>
-      <c r="F79" t="s">
-        <v>679</v>
+      <c r="F79" t="n">
+        <v>19561</v>
       </c>
       <c r="G79" t="n">
         <v>0.22</v>
       </c>
-      <c r="H79" t="s">
-        <v>680</v>
+      <c r="H79" t="n">
+        <v>13906</v>
       </c>
       <c r="I79" t="n">
         <v>0.16</v>
       </c>
-      <c r="J79" t="s">
-        <v>681</v>
+      <c r="J79" t="n">
+        <v>11666</v>
       </c>
       <c r="K79" t="n">
         <v>0.14</v>
       </c>
-      <c r="L79" t="s">
-        <v>682</v>
+      <c r="L79" t="n">
+        <v>10832</v>
       </c>
       <c r="M79" t="n">
         <v>0.13</v>
       </c>
-      <c r="N79" t="s">
-        <v>683</v>
+      <c r="N79" t="n">
+        <v>6102</v>
       </c>
       <c r="O79" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P79" t="s">
-        <v>684</v>
+      <c r="P79" t="n">
+        <v>30492</v>
       </c>
       <c r="Q79" t="n">
         <v>0.36</v>
       </c>
-      <c r="R79" t="s">
-        <v>685</v>
+      <c r="R79" t="n">
+        <v>29376</v>
       </c>
       <c r="S79" t="n">
         <v>0.36</v>
       </c>
-      <c r="T79" t="s">
-        <v>686</v>
+      <c r="T79" t="n">
+        <v>22853</v>
       </c>
       <c r="U79" t="n">
         <v>0.27</v>
       </c>
-      <c r="V79" t="s">
-        <v>687</v>
+      <c r="V79" t="n">
+        <v>33435</v>
       </c>
       <c r="W79" t="n">
         <v>0.42</v>
       </c>
-      <c r="X79" t="s">
-        <v>688</v>
+      <c r="X79" t="n">
+        <v>33814</v>
       </c>
       <c r="Y79" t="n">
         <v>0.43</v>
       </c>
-      <c r="Z79" t="s">
-        <v>689</v>
+      <c r="Z79" t="n">
+        <v>34793</v>
       </c>
       <c r="AA79" t="n">
         <v>0.45</v>
       </c>
-      <c r="AB79" t="s">
-        <v>690</v>
+      <c r="AB79" t="n">
+        <v>31231</v>
       </c>
       <c r="AC79" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD79" t="s">
-        <v>691</v>
+      <c r="AD79" t="n">
+        <v>30090</v>
       </c>
       <c r="AE79" t="n">
         <v>0.39</v>
       </c>
-      <c r="AF79" t="s">
-        <v>692</v>
+      <c r="AF79" t="n">
+        <v>30141</v>
       </c>
       <c r="AG79" t="n">
         <v>0.39</v>
@@ -8907,100 +7014,100 @@
     </row>
     <row r="80" spans="1:33">
       <c r="A80" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B80" t="s">
-        <v>694</v>
+        <v>110</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2046786</v>
       </c>
       <c r="C80" t="n">
         <v>23.87</v>
       </c>
-      <c r="D80" t="s">
-        <v>695</v>
+      <c r="D80" t="n">
+        <v>2108292</v>
       </c>
       <c r="E80" t="n">
         <v>24.13</v>
       </c>
-      <c r="F80" t="s">
-        <v>696</v>
+      <c r="F80" t="n">
+        <v>2026759</v>
       </c>
       <c r="G80" t="n">
         <v>23.25</v>
       </c>
-      <c r="H80" t="s">
-        <v>697</v>
+      <c r="H80" t="n">
+        <v>1943426</v>
       </c>
       <c r="I80" t="n">
         <v>22.64</v>
       </c>
-      <c r="J80" t="s">
-        <v>698</v>
+      <c r="J80" t="n">
+        <v>1826009</v>
       </c>
       <c r="K80" t="n">
         <v>21.62</v>
       </c>
-      <c r="L80" t="s">
-        <v>699</v>
+      <c r="L80" t="n">
+        <v>1807217</v>
       </c>
       <c r="M80" t="n">
         <v>21.24</v>
       </c>
-      <c r="N80" t="s">
-        <v>700</v>
+      <c r="N80" t="n">
+        <v>1801963</v>
       </c>
       <c r="O80" t="n">
         <v>21.42</v>
       </c>
-      <c r="P80" t="s">
-        <v>701</v>
+      <c r="P80" t="n">
+        <v>1414348</v>
       </c>
       <c r="Q80" t="n">
         <v>16.91</v>
       </c>
-      <c r="R80" t="s">
-        <v>702</v>
+      <c r="R80" t="n">
+        <v>1300489</v>
       </c>
       <c r="S80" t="n">
         <v>15.84</v>
       </c>
-      <c r="T80" t="s">
-        <v>703</v>
+      <c r="T80" t="n">
+        <v>1266891</v>
       </c>
       <c r="U80" t="n">
         <v>15.2</v>
       </c>
-      <c r="V80" t="s">
-        <v>704</v>
+      <c r="V80" t="n">
+        <v>1242329</v>
       </c>
       <c r="W80" t="n">
         <v>15.48</v>
       </c>
-      <c r="X80" t="s">
-        <v>705</v>
+      <c r="X80" t="n">
+        <v>1185095</v>
       </c>
       <c r="Y80" t="n">
         <v>15.09</v>
       </c>
-      <c r="Z80" t="s">
-        <v>706</v>
+      <c r="Z80" t="n">
+        <v>760985</v>
       </c>
       <c r="AA80" t="n">
         <v>9.83</v>
       </c>
-      <c r="AB80" t="s">
-        <v>707</v>
+      <c r="AB80" t="n">
+        <v>692722</v>
       </c>
       <c r="AC80" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="AD80" t="s">
-        <v>708</v>
+      <c r="AD80" t="n">
+        <v>417435</v>
       </c>
       <c r="AE80" t="n">
         <v>5.35</v>
       </c>
-      <c r="AF80" t="s">
-        <v>709</v>
+      <c r="AF80" t="n">
+        <v>345911</v>
       </c>
       <c r="AG80" t="n">
         <v>4.46</v>
@@ -9008,100 +7115,100 @@
     </row>
     <row r="81" spans="1:33">
       <c r="A81" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B81" t="s">
-        <v>711</v>
+        <v>111</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3260915</v>
       </c>
       <c r="C81" t="n">
         <v>38.03</v>
       </c>
-      <c r="D81" t="s">
-        <v>712</v>
+      <c r="D81" t="n">
+        <v>3154382</v>
       </c>
       <c r="E81" t="n">
         <v>36.1</v>
       </c>
-      <c r="F81" t="s">
-        <v>713</v>
+      <c r="F81" t="n">
+        <v>3054687</v>
       </c>
       <c r="G81" t="n">
         <v>35.04</v>
       </c>
-      <c r="H81" t="s">
-        <v>714</v>
+      <c r="H81" t="n">
+        <v>2990006</v>
       </c>
       <c r="I81" t="n">
         <v>34.84</v>
       </c>
-      <c r="J81" t="s">
-        <v>715</v>
+      <c r="J81" t="n">
+        <v>2957839</v>
       </c>
       <c r="K81" t="n">
         <v>35.02</v>
       </c>
-      <c r="L81" t="s">
-        <v>716</v>
+      <c r="L81" t="n">
+        <v>2935530</v>
       </c>
       <c r="M81" t="n">
         <v>34.5</v>
       </c>
-      <c r="N81" t="s">
-        <v>717</v>
+      <c r="N81" t="n">
+        <v>2856680</v>
       </c>
       <c r="O81" t="n">
         <v>33.95</v>
       </c>
-      <c r="P81" t="s">
-        <v>718</v>
+      <c r="P81" t="n">
+        <v>2801709</v>
       </c>
       <c r="Q81" t="n">
         <v>33.5</v>
       </c>
-      <c r="R81" t="s">
-        <v>719</v>
+      <c r="R81" t="n">
+        <v>2765216</v>
       </c>
       <c r="S81" t="n">
         <v>33.69</v>
       </c>
-      <c r="T81" t="s">
-        <v>720</v>
+      <c r="T81" t="n">
+        <v>2694732</v>
       </c>
       <c r="U81" t="n">
         <v>32.33</v>
       </c>
-      <c r="V81" t="s">
-        <v>721</v>
+      <c r="V81" t="n">
+        <v>2694925</v>
       </c>
       <c r="W81" t="n">
         <v>33.58</v>
       </c>
-      <c r="X81" t="s">
-        <v>722</v>
+      <c r="X81" t="n">
+        <v>2642739</v>
       </c>
       <c r="Y81" t="n">
         <v>33.64</v>
       </c>
-      <c r="Z81" t="s">
-        <v>723</v>
+      <c r="Z81" t="n">
+        <v>2541416</v>
       </c>
       <c r="AA81" t="n">
         <v>32.83</v>
       </c>
-      <c r="AB81" t="s">
-        <v>724</v>
+      <c r="AB81" t="n">
+        <v>2473848</v>
       </c>
       <c r="AC81" t="n">
         <v>32</v>
       </c>
-      <c r="AD81" t="s">
-        <v>725</v>
+      <c r="AD81" t="n">
+        <v>2433071</v>
       </c>
       <c r="AE81" t="n">
         <v>31.19</v>
       </c>
-      <c r="AF81" t="s">
-        <v>726</v>
+      <c r="AF81" t="n">
+        <v>2391882</v>
       </c>
       <c r="AG81" t="n">
         <v>30.85</v>
@@ -9109,100 +7216,100 @@
     </row>
     <row r="82" spans="1:33">
       <c r="A82" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B82" t="s">
-        <v>728</v>
+        <v>112</v>
+      </c>
+      <c r="B82" t="n">
+        <v>164069</v>
       </c>
       <c r="C82" t="n">
         <v>1.91</v>
       </c>
-      <c r="D82" t="s">
-        <v>729</v>
+      <c r="D82" t="n">
+        <v>236696</v>
       </c>
       <c r="E82" t="n">
         <v>2.71</v>
       </c>
-      <c r="F82" t="s">
-        <v>730</v>
+      <c r="F82" t="n">
+        <v>250834</v>
       </c>
       <c r="G82" t="n">
         <v>2.88</v>
       </c>
-      <c r="H82" t="s">
-        <v>731</v>
+      <c r="H82" t="n">
+        <v>216917</v>
       </c>
       <c r="I82" t="n">
         <v>2.53</v>
       </c>
-      <c r="J82" t="s">
-        <v>732</v>
+      <c r="J82" t="n">
+        <v>225978</v>
       </c>
       <c r="K82" t="n">
         <v>2.68</v>
       </c>
-      <c r="L82" t="s">
-        <v>733</v>
+      <c r="L82" t="n">
+        <v>233452</v>
       </c>
       <c r="M82" t="n">
         <v>2.74</v>
       </c>
-      <c r="N82" t="s">
-        <v>734</v>
+      <c r="N82" t="n">
+        <v>262728</v>
       </c>
       <c r="O82" t="n">
         <v>3.12</v>
       </c>
-      <c r="P82" t="s">
-        <v>735</v>
+      <c r="P82" t="n">
+        <v>205124</v>
       </c>
       <c r="Q82" t="n">
         <v>2.45</v>
       </c>
-      <c r="R82" t="s">
-        <v>736</v>
+      <c r="R82" t="n">
+        <v>221575</v>
       </c>
       <c r="S82" t="n">
         <v>2.7</v>
       </c>
-      <c r="T82" t="s">
-        <v>737</v>
+      <c r="T82" t="n">
+        <v>222242</v>
       </c>
       <c r="U82" t="n">
         <v>2.67</v>
       </c>
-      <c r="V82" t="s">
-        <v>738</v>
+      <c r="V82" t="n">
+        <v>215805</v>
       </c>
       <c r="W82" t="n">
         <v>2.69</v>
       </c>
-      <c r="X82" t="s">
-        <v>739</v>
+      <c r="X82" t="n">
+        <v>209909</v>
       </c>
       <c r="Y82" t="n">
         <v>2.67</v>
       </c>
-      <c r="Z82" t="s">
-        <v>740</v>
+      <c r="Z82" t="n">
+        <v>265386</v>
       </c>
       <c r="AA82" t="n">
         <v>3.43</v>
       </c>
-      <c r="AB82" t="s">
-        <v>741</v>
+      <c r="AB82" t="n">
+        <v>251981</v>
       </c>
       <c r="AC82" t="n">
         <v>3.26</v>
       </c>
-      <c r="AD82" t="s">
-        <v>742</v>
+      <c r="AD82" t="n">
+        <v>250823</v>
       </c>
       <c r="AE82" t="n">
         <v>3.22</v>
       </c>
-      <c r="AF82" t="s">
-        <v>743</v>
+      <c r="AF82" t="n">
+        <v>168666</v>
       </c>
       <c r="AG82" t="n">
         <v>2.18</v>
@@ -9210,70 +7317,70 @@
     </row>
     <row r="83" spans="1:33">
       <c r="A83" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B83" t="s">
-        <v>50</v>
+        <v>113</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
       <c r="C83" t="s"/>
-      <c r="D83" t="s">
-        <v>50</v>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
       <c r="E83" t="s"/>
-      <c r="F83" t="s">
-        <v>50</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>50</v>
+      <c r="H83" t="n">
+        <v>0</v>
       </c>
       <c r="I83" t="s"/>
-      <c r="J83" t="s">
-        <v>50</v>
+      <c r="J83" t="n">
+        <v>0</v>
       </c>
       <c r="K83" t="s"/>
-      <c r="L83" t="s">
-        <v>50</v>
+      <c r="L83" t="n">
+        <v>0</v>
       </c>
       <c r="M83" t="s"/>
-      <c r="N83" t="s">
-        <v>50</v>
+      <c r="N83" t="n">
+        <v>0</v>
       </c>
       <c r="O83" t="s"/>
-      <c r="P83" t="s">
-        <v>50</v>
+      <c r="P83" t="n">
+        <v>0</v>
       </c>
       <c r="Q83" t="s"/>
-      <c r="R83" t="s">
-        <v>50</v>
+      <c r="R83" t="n">
+        <v>0</v>
       </c>
       <c r="S83" t="s"/>
-      <c r="T83" t="s">
-        <v>50</v>
+      <c r="T83" t="n">
+        <v>0</v>
       </c>
       <c r="U83" t="s"/>
-      <c r="V83" t="s">
-        <v>50</v>
+      <c r="V83" t="n">
+        <v>0</v>
       </c>
       <c r="W83" t="s"/>
-      <c r="X83" t="s">
-        <v>50</v>
+      <c r="X83" t="n">
+        <v>0</v>
       </c>
       <c r="Y83" t="s"/>
-      <c r="Z83" t="s">
-        <v>50</v>
+      <c r="Z83" t="n">
+        <v>0</v>
       </c>
       <c r="AA83" t="s"/>
-      <c r="AB83" t="s">
-        <v>50</v>
+      <c r="AB83" t="n">
+        <v>0</v>
       </c>
       <c r="AC83" t="s"/>
-      <c r="AD83" t="s">
-        <v>50</v>
+      <c r="AD83" t="n">
+        <v>0</v>
       </c>
       <c r="AE83" t="s"/>
-      <c r="AF83" t="s">
-        <v>50</v>
+      <c r="AF83" t="n">
+        <v>0</v>
       </c>
       <c r="AG83" t="s"/>
     </row>
